--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Python\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6311B6C-4157-40A1-854E-F2346981E3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A6D0C9-E933-41B5-8B7C-5FC753BB7674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{570308FA-57AA-44D8-AB6B-3FED48127706}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{570308FA-57AA-44D8-AB6B-3FED48127706}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,21 +37,380 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="117">
   <si>
     <t>Days Ahead</t>
   </si>
   <si>
-    <t>RMSE</t>
+    <t>MLP</t>
+  </si>
+  <si>
+    <t>Ridge</t>
+  </si>
+  <si>
+    <t>Multiple Regression</t>
+  </si>
+  <si>
+    <t>Lasso</t>
+  </si>
+  <si>
+    <t>Elastic Net</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Holdout</t>
+  </si>
+  <si>
+    <t>Same Day</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>und</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>nl</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>pl</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>zh</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>et</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>el</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>tl</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>ro</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>sv</t>
+  </si>
+  <si>
+    <t>ur</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>fa</t>
+  </si>
+  <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>hu</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>gu</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>cy</t>
+  </si>
+  <si>
+    <t>bg</t>
+  </si>
+  <si>
+    <t>kn</t>
+  </si>
+  <si>
+    <t>sl</t>
+  </si>
+  <si>
+    <t>bn</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>iw</t>
+  </si>
+  <si>
+    <t>lv</t>
+  </si>
+  <si>
+    <t>ne</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>sr</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>ka</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>hy</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>my</t>
+  </si>
+  <si>
+    <t>ckb</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Bengali</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t>Danish</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Persian</t>
+  </si>
+  <si>
+    <t>Finnish</t>
+  </si>
+  <si>
+    <t>Filipino</t>
+  </si>
+  <si>
+    <t>fil</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Hebrew</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Hungarian</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Malay</t>
+  </si>
+  <si>
+    <t>msa</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>Norwegian</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Romanian</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Swedish</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>Ukrainian</t>
+  </si>
+  <si>
+    <t>Urdu</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>Chinese (Simplified)</t>
+  </si>
+  <si>
+    <t>zh-cn</t>
+  </si>
+  <si>
+    <t>Chinese (Traditional)</t>
+  </si>
+  <si>
+    <t>zh-tw</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Tweet Count</t>
+  </si>
+  <si>
+    <t>All Languages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -63,7 +425,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -123,11 +485,284 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -140,6 +775,130 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,65 +1214,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7B9209-BC2C-49E5-89BC-69E21646CCDE}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="C1" s="2">
         <v>0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>2</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>3</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>4</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="C2" s="4">
         <v>1.992</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>1.853</v>
       </c>
-      <c r="D2" s="4">
+      <c r="E2" s="4">
         <v>1.9550000000000001</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>1.931</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>1.9339999999999999</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>1.9850000000000001</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:G2">
+  <conditionalFormatting sqref="C2:H2">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -526,4 +1285,4119 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3CEECB-CE64-4449-A204-376D56E552FB}">
+  <dimension ref="B3:AA57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="20" width="8.140625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V3" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>3</v>
+      </c>
+      <c r="Z3">
+        <v>4</v>
+      </c>
+      <c r="AA3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="7">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="7">
+        <v>3</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="7">
+        <v>4</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="7">
+        <v>5</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="9"/>
+      <c r="V4">
+        <f>SMALL(E6:E57,1)</f>
+        <v>11.92</v>
+      </c>
+      <c r="W4">
+        <f>SMALL(H6:H57,1)</f>
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="X4">
+        <f>SMALL(K6:K57,1)</f>
+        <v>1.3069999999999999</v>
+      </c>
+      <c r="Y4">
+        <f>SMALL(N6:N57,1)</f>
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="Z4">
+        <f>SMALL(Q6:Q57,1)</f>
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="AA4">
+        <f>SMALL(T6:T57,1)</f>
+        <v>1.4890000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13"/>
+      <c r="C5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1.91</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1.9339999999999999</v>
+      </c>
+      <c r="E6" s="17">
+        <v>11.94</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1.776</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1.87</v>
+      </c>
+      <c r="J6" s="16">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="K6" s="17">
+        <v>1.41</v>
+      </c>
+      <c r="L6" s="15">
+        <v>1.849</v>
+      </c>
+      <c r="M6" s="16">
+        <v>1.873</v>
+      </c>
+      <c r="N6" s="17">
+        <v>1.66</v>
+      </c>
+      <c r="O6" s="15">
+        <v>1.857</v>
+      </c>
+      <c r="P6" s="16">
+        <v>1.883</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="R6" s="15">
+        <v>1.8979999999999999</v>
+      </c>
+      <c r="S6" s="16">
+        <v>1.923</v>
+      </c>
+      <c r="T6" s="17">
+        <v>1.655</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1.988</v>
+      </c>
+      <c r="D7" s="22">
+        <v>1.994</v>
+      </c>
+      <c r="E7" s="23">
+        <v>11.94</v>
+      </c>
+      <c r="F7" s="21">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="G7" s="22">
+        <v>1.9970000000000001</v>
+      </c>
+      <c r="H7" s="23">
+        <v>11.94</v>
+      </c>
+      <c r="I7" s="21">
+        <v>1.857</v>
+      </c>
+      <c r="J7" s="22">
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="K7" s="23">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="L7" s="21">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="M7" s="22">
+        <v>1.9550000000000001</v>
+      </c>
+      <c r="N7" s="23">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="O7" s="21">
+        <v>1.9370000000000001</v>
+      </c>
+      <c r="P7" s="22">
+        <v>1.948</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>1.605</v>
+      </c>
+      <c r="R7" s="21">
+        <v>1.9339999999999999</v>
+      </c>
+      <c r="S7" s="22">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="T7" s="23">
+        <v>1.5720000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="21">
+        <v>1.9890000000000001</v>
+      </c>
+      <c r="D8" s="22">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="E8" s="23">
+        <v>11.94</v>
+      </c>
+      <c r="F8" s="21">
+        <v>1.859</v>
+      </c>
+      <c r="G8" s="22">
+        <v>1.861</v>
+      </c>
+      <c r="H8" s="23">
+        <v>1.387</v>
+      </c>
+      <c r="I8" s="21">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="J8" s="22">
+        <v>1.952</v>
+      </c>
+      <c r="K8" s="23">
+        <v>1.359</v>
+      </c>
+      <c r="L8" s="21">
+        <v>1.94</v>
+      </c>
+      <c r="M8" s="22">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="N8" s="23">
+        <v>1.58</v>
+      </c>
+      <c r="O8" s="21">
+        <v>1.9359999999999999</v>
+      </c>
+      <c r="P8" s="22">
+        <v>1.9410000000000001</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="R8" s="21">
+        <v>1.9830000000000001</v>
+      </c>
+      <c r="S8" s="22">
+        <v>1.986</v>
+      </c>
+      <c r="T8" s="23">
+        <v>1.617</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="21">
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="D9" s="22">
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="E9" s="23">
+        <v>11.94</v>
+      </c>
+      <c r="F9" s="21">
+        <v>1.903</v>
+      </c>
+      <c r="G9" s="22">
+        <v>1.9019999999999999</v>
+      </c>
+      <c r="H9" s="23">
+        <v>1.373</v>
+      </c>
+      <c r="I9" s="21">
+        <v>1.9850000000000001</v>
+      </c>
+      <c r="J9" s="22">
+        <v>1.9890000000000001</v>
+      </c>
+      <c r="K9" s="20">
+        <v>1.337</v>
+      </c>
+      <c r="L9" s="21">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="M9" s="22">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="N9" s="23">
+        <v>1.56</v>
+      </c>
+      <c r="O9" s="21">
+        <v>1.982</v>
+      </c>
+      <c r="P9" s="22">
+        <v>1.9850000000000001</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="R9" s="21">
+        <v>2.028</v>
+      </c>
+      <c r="S9" s="22">
+        <v>2.0270000000000001</v>
+      </c>
+      <c r="T9" s="23">
+        <v>1.6040000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="24">
+        <v>2.0459999999999998</v>
+      </c>
+      <c r="D10" s="25">
+        <v>2.0470000000000002</v>
+      </c>
+      <c r="E10" s="26">
+        <v>11.94</v>
+      </c>
+      <c r="F10" s="24">
+        <v>1.907</v>
+      </c>
+      <c r="G10" s="25">
+        <v>1.907</v>
+      </c>
+      <c r="H10" s="26">
+        <v>1.373</v>
+      </c>
+      <c r="I10" s="24">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="J10" s="47">
+        <v>1.992</v>
+      </c>
+      <c r="K10" s="49">
+        <v>1.337</v>
+      </c>
+      <c r="L10" s="48">
+        <v>2.004</v>
+      </c>
+      <c r="M10" s="25">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="N10" s="26">
+        <v>1.5609999999999999</v>
+      </c>
+      <c r="O10" s="24">
+        <v>1.9850000000000001</v>
+      </c>
+      <c r="P10" s="25">
+        <v>1.988</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>1.512</v>
+      </c>
+      <c r="R10" s="24">
+        <v>2.032</v>
+      </c>
+      <c r="S10" s="25">
+        <v>2.0310000000000001</v>
+      </c>
+      <c r="T10" s="26">
+        <v>1.603</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="7">
+        <v>2</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="7">
+        <v>3</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="7">
+        <v>4</v>
+      </c>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="7">
+        <v>5</v>
+      </c>
+      <c r="S15" s="8"/>
+      <c r="T15" s="9"/>
+    </row>
+    <row r="16" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="13"/>
+      <c r="C16" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S16" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="T16" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1.9890000000000001</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1.992</v>
+      </c>
+      <c r="E17" s="17">
+        <v>11.96</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1.857</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1.863</v>
+      </c>
+      <c r="H17" s="17">
+        <v>1.478</v>
+      </c>
+      <c r="I17" s="15">
+        <v>1.9510000000000001</v>
+      </c>
+      <c r="J17" s="16">
+        <v>1.9570000000000001</v>
+      </c>
+      <c r="K17" s="17">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="L17" s="15">
+        <v>1.9239999999999999</v>
+      </c>
+      <c r="M17" s="16">
+        <v>1.931</v>
+      </c>
+      <c r="N17" s="17">
+        <v>1.7030000000000001</v>
+      </c>
+      <c r="O17" s="15">
+        <v>1.9339999999999999</v>
+      </c>
+      <c r="P17" s="16">
+        <v>1.944</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>1.623</v>
+      </c>
+      <c r="R17" s="15">
+        <v>1.97</v>
+      </c>
+      <c r="S17" s="16">
+        <v>1.9770000000000001</v>
+      </c>
+      <c r="T17" s="17">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="21">
+        <v>2.0529999999999999</v>
+      </c>
+      <c r="D18" s="22">
+        <v>2.056</v>
+      </c>
+      <c r="E18" s="23">
+        <v>12.1</v>
+      </c>
+      <c r="F18" s="21">
+        <v>1.919</v>
+      </c>
+      <c r="G18" s="22">
+        <v>1.9239999999999999</v>
+      </c>
+      <c r="H18" s="23">
+        <v>2.27</v>
+      </c>
+      <c r="I18" s="21">
+        <v>1.004</v>
+      </c>
+      <c r="J18" s="22">
+        <v>2.0089999999999999</v>
+      </c>
+      <c r="K18" s="23">
+        <v>2.4780000000000002</v>
+      </c>
+      <c r="L18" s="21">
+        <v>1.972</v>
+      </c>
+      <c r="M18" s="22">
+        <v>1.98</v>
+      </c>
+      <c r="N18" s="23">
+        <v>2.6190000000000002</v>
+      </c>
+      <c r="O18" s="21">
+        <v>1.978</v>
+      </c>
+      <c r="P18" s="22">
+        <v>1.9890000000000001</v>
+      </c>
+      <c r="Q18" s="23">
+        <v>2.3039999999999998</v>
+      </c>
+      <c r="R18" s="21">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S18" s="22">
+        <v>2.38</v>
+      </c>
+      <c r="T18" s="23">
+        <v>2.653</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="21">
+        <v>2.0539999999999998</v>
+      </c>
+      <c r="D19" s="22">
+        <v>2.0529999999999999</v>
+      </c>
+      <c r="E19" s="23">
+        <v>11.94</v>
+      </c>
+      <c r="F19" s="21">
+        <v>1.92</v>
+      </c>
+      <c r="G19" s="22">
+        <v>1.923</v>
+      </c>
+      <c r="H19" s="23">
+        <v>1.4079999999999999</v>
+      </c>
+      <c r="I19" s="21">
+        <v>2.0049999999999999</v>
+      </c>
+      <c r="J19" s="22">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="K19" s="23">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="L19" s="21">
+        <v>1.9730000000000001</v>
+      </c>
+      <c r="M19" s="22">
+        <v>1.978</v>
+      </c>
+      <c r="N19" s="23">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="O19" s="21">
+        <v>1.9790000000000001</v>
+      </c>
+      <c r="P19" s="22">
+        <v>1.986</v>
+      </c>
+      <c r="Q19" s="23">
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="R19" s="21">
+        <v>2.0310000000000001</v>
+      </c>
+      <c r="S19" s="22">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="T19" s="23">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="21">
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="D20" s="22">
+        <v>2.06</v>
+      </c>
+      <c r="E20" s="23">
+        <v>11.94</v>
+      </c>
+      <c r="F20" s="21">
+        <v>1.925</v>
+      </c>
+      <c r="G20" s="22">
+        <v>1.927</v>
+      </c>
+      <c r="H20" s="23">
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="I20" s="21">
+        <v>2.012</v>
+      </c>
+      <c r="J20" s="22">
+        <v>2.012</v>
+      </c>
+      <c r="K20" s="20">
+        <v>1.3360000000000001</v>
+      </c>
+      <c r="L20" s="21">
+        <v>1.9810000000000001</v>
+      </c>
+      <c r="M20" s="22">
+        <v>1.9850000000000001</v>
+      </c>
+      <c r="N20" s="23">
+        <v>1.5609999999999999</v>
+      </c>
+      <c r="O20" s="21">
+        <v>1.9850000000000001</v>
+      </c>
+      <c r="P20" s="22">
+        <v>1.9910000000000001</v>
+      </c>
+      <c r="Q20" s="23">
+        <v>1.508</v>
+      </c>
+      <c r="R20" s="21">
+        <v>2.036</v>
+      </c>
+      <c r="S20" s="22">
+        <v>2.0390000000000001</v>
+      </c>
+      <c r="T20" s="23">
+        <v>1.6080000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="24">
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="D21" s="25">
+        <v>2.06</v>
+      </c>
+      <c r="E21" s="26">
+        <v>11.94</v>
+      </c>
+      <c r="F21" s="24">
+        <v>1.925</v>
+      </c>
+      <c r="G21" s="25">
+        <v>1.927</v>
+      </c>
+      <c r="H21" s="26">
+        <v>1.369</v>
+      </c>
+      <c r="I21" s="24">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="J21" s="47">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="K21" s="49">
+        <v>1.3360000000000001</v>
+      </c>
+      <c r="L21" s="48">
+        <v>1.98</v>
+      </c>
+      <c r="M21" s="25">
+        <v>1.984</v>
+      </c>
+      <c r="N21" s="26">
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="O21" s="24">
+        <v>1.9850000000000001</v>
+      </c>
+      <c r="P21" s="25">
+        <v>1.9910000000000001</v>
+      </c>
+      <c r="Q21" s="26">
+        <v>1.5069999999999999</v>
+      </c>
+      <c r="R21" s="24">
+        <v>2.036</v>
+      </c>
+      <c r="S21" s="25">
+        <v>2.0390000000000001</v>
+      </c>
+      <c r="T21" s="26">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="7">
+        <v>2</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="7">
+        <v>3</v>
+      </c>
+      <c r="M24" s="8"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="7">
+        <v>4</v>
+      </c>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="7">
+        <v>5</v>
+      </c>
+      <c r="S24" s="8"/>
+      <c r="T24" s="9"/>
+    </row>
+    <row r="25" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="13"/>
+      <c r="C25" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="R25" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="T25" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="15">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1.9359999999999999</v>
+      </c>
+      <c r="E26" s="17">
+        <v>12.05</v>
+      </c>
+      <c r="F26" s="15">
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="G26" s="16">
+        <v>1.8029999999999999</v>
+      </c>
+      <c r="H26" s="17">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="I26" s="15">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="J26" s="16">
+        <v>1.879</v>
+      </c>
+      <c r="K26" s="17">
+        <v>1.778</v>
+      </c>
+      <c r="L26" s="15">
+        <v>1.778</v>
+      </c>
+      <c r="M26" s="16">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="N26" s="17">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="O26" s="15">
+        <v>1.7589999999999999</v>
+      </c>
+      <c r="P26" s="16">
+        <v>1.8740000000000001</v>
+      </c>
+      <c r="Q26" s="17">
+        <v>1.732</v>
+      </c>
+      <c r="R26" s="15">
+        <v>1.794</v>
+      </c>
+      <c r="S26" s="16">
+        <v>1.913</v>
+      </c>
+      <c r="T26" s="17">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="21">
+        <v>1.9950000000000001</v>
+      </c>
+      <c r="D27" s="22">
+        <v>195.6</v>
+      </c>
+      <c r="E27" s="23">
+        <v>1773</v>
+      </c>
+      <c r="F27" s="21">
+        <v>1.8520000000000001</v>
+      </c>
+      <c r="G27" s="22">
+        <v>623.9</v>
+      </c>
+      <c r="H27" s="23">
+        <v>6483</v>
+      </c>
+      <c r="I27" s="21">
+        <v>1.946</v>
+      </c>
+      <c r="J27" s="22">
+        <v>599.1</v>
+      </c>
+      <c r="K27" s="23">
+        <v>6157</v>
+      </c>
+      <c r="L27" s="21">
+        <v>1.956</v>
+      </c>
+      <c r="M27" s="22">
+        <v>888.6</v>
+      </c>
+      <c r="N27" s="23">
+        <v>7814</v>
+      </c>
+      <c r="O27" s="21">
+        <v>1.919</v>
+      </c>
+      <c r="P27" s="22">
+        <v>336.8</v>
+      </c>
+      <c r="Q27" s="23">
+        <v>3631</v>
+      </c>
+      <c r="R27" s="21">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="S27" s="22">
+        <v>1322</v>
+      </c>
+      <c r="T27" s="23">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="21">
+        <v>2.0019999999999998</v>
+      </c>
+      <c r="D28" s="22">
+        <v>2.012</v>
+      </c>
+      <c r="E28" s="23">
+        <v>11.99</v>
+      </c>
+      <c r="F28" s="21">
+        <v>1.8460000000000001</v>
+      </c>
+      <c r="G28" s="22">
+        <v>1.861</v>
+      </c>
+      <c r="H28" s="23">
+        <v>1.4159999999999999</v>
+      </c>
+      <c r="I28" s="21">
+        <v>1.9370000000000001</v>
+      </c>
+      <c r="J28" s="22">
+        <v>1.9510000000000001</v>
+      </c>
+      <c r="K28" s="23">
+        <v>1.349</v>
+      </c>
+      <c r="L28" s="21">
+        <v>1.94</v>
+      </c>
+      <c r="M28" s="22">
+        <v>1.958</v>
+      </c>
+      <c r="N28" s="23">
+        <v>1.62</v>
+      </c>
+      <c r="O28" s="21">
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="P28" s="22">
+        <v>1.946</v>
+      </c>
+      <c r="Q28" s="23">
+        <v>1.544</v>
+      </c>
+      <c r="R28" s="21">
+        <v>1.9830000000000001</v>
+      </c>
+      <c r="S28" s="22">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="T28" s="23">
+        <v>1.5940000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="21">
+        <v>2.0569999999999999</v>
+      </c>
+      <c r="D29" s="22">
+        <v>2.0529999999999999</v>
+      </c>
+      <c r="E29" s="23">
+        <v>11.98</v>
+      </c>
+      <c r="F29" s="21">
+        <v>1.8959999999999999</v>
+      </c>
+      <c r="G29" s="22">
+        <v>1.895</v>
+      </c>
+      <c r="H29" s="23">
+        <v>1.369</v>
+      </c>
+      <c r="I29" s="21">
+        <v>1.9950000000000001</v>
+      </c>
+      <c r="J29" s="22">
+        <v>1.9950000000000001</v>
+      </c>
+      <c r="K29" s="20">
+        <v>1.3109999999999999</v>
+      </c>
+      <c r="L29" s="21">
+        <v>1.994</v>
+      </c>
+      <c r="M29" s="22">
+        <v>1.9970000000000001</v>
+      </c>
+      <c r="N29" s="23">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="O29" s="21">
+        <v>1.9790000000000001</v>
+      </c>
+      <c r="P29" s="22">
+        <v>1.9890000000000001</v>
+      </c>
+      <c r="Q29" s="23">
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="R29" s="21">
+        <v>2.036</v>
+      </c>
+      <c r="S29" s="22">
+        <v>2.0390000000000001</v>
+      </c>
+      <c r="T29" s="23">
+        <v>1.615</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="24">
+        <v>2.0590000000000002</v>
+      </c>
+      <c r="D30" s="25">
+        <v>2.0539999999999998</v>
+      </c>
+      <c r="E30" s="26">
+        <v>11.98</v>
+      </c>
+      <c r="F30" s="24">
+        <v>1.8959999999999999</v>
+      </c>
+      <c r="G30" s="25">
+        <v>1.895</v>
+      </c>
+      <c r="H30" s="26">
+        <v>1.37</v>
+      </c>
+      <c r="I30" s="24">
+        <v>1.998</v>
+      </c>
+      <c r="J30" s="47">
+        <v>1.9970000000000001</v>
+      </c>
+      <c r="K30" s="50">
+        <v>1.3069999999999999</v>
+      </c>
+      <c r="L30" s="48">
+        <v>1.9950000000000001</v>
+      </c>
+      <c r="M30" s="25">
+        <v>1.998</v>
+      </c>
+      <c r="N30" s="26">
+        <v>1.538</v>
+      </c>
+      <c r="O30" s="24">
+        <v>1.978</v>
+      </c>
+      <c r="P30" s="25">
+        <v>1.988</v>
+      </c>
+      <c r="Q30" s="26">
+        <v>1.52</v>
+      </c>
+      <c r="R30" s="24">
+        <v>2.036</v>
+      </c>
+      <c r="S30" s="25">
+        <v>2.0390000000000001</v>
+      </c>
+      <c r="T30" s="26">
+        <v>1.619</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="7">
+        <v>2</v>
+      </c>
+      <c r="J33" s="8"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="7">
+        <v>3</v>
+      </c>
+      <c r="M33" s="8"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="7">
+        <v>4</v>
+      </c>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="7">
+        <v>5</v>
+      </c>
+      <c r="S33" s="8"/>
+      <c r="T33" s="9"/>
+    </row>
+    <row r="34" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="13"/>
+      <c r="C34" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L34" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N34" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="O34" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="P34" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q34" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="R34" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S34" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="T34" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="15">
+        <v>0.88859999999999995</v>
+      </c>
+      <c r="D35" s="16">
+        <v>0.90449999999999997</v>
+      </c>
+      <c r="E35" s="17">
+        <v>12.07</v>
+      </c>
+      <c r="F35" s="15">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="G35" s="16">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="H35" s="17">
+        <v>1.782</v>
+      </c>
+      <c r="I35" s="15">
+        <v>0.8921</v>
+      </c>
+      <c r="J35" s="16">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="K35" s="17">
+        <v>1.407</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0.91</v>
+      </c>
+      <c r="M35" s="16">
+        <v>0.92779999999999996</v>
+      </c>
+      <c r="N35" s="17">
+        <v>1.784</v>
+      </c>
+      <c r="O35" s="15">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="P35" s="16">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="Q35" s="17">
+        <v>1.6950000000000001</v>
+      </c>
+      <c r="R35" s="15">
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="S35" s="16">
+        <v>0.9617</v>
+      </c>
+      <c r="T35" s="17">
+        <v>1.698</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="21">
+        <v>0.87619999999999998</v>
+      </c>
+      <c r="D36" s="22">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="E36" s="23">
+        <v>12.22</v>
+      </c>
+      <c r="F36" s="21">
+        <v>0.83809999999999996</v>
+      </c>
+      <c r="G36" s="22">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="H36" s="23">
+        <v>2.7290000000000001</v>
+      </c>
+      <c r="I36" s="21">
+        <v>0.85650000000000004</v>
+      </c>
+      <c r="J36" s="22">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="K36" s="23">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="L36" s="21">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="M36" s="22">
+        <v>0.96130000000000004</v>
+      </c>
+      <c r="N36" s="23">
+        <v>2.8730000000000002</v>
+      </c>
+      <c r="O36" s="21">
+        <v>0.9708</v>
+      </c>
+      <c r="P36" s="22">
+        <v>1.028</v>
+      </c>
+      <c r="Q36" s="23">
+        <v>2.2829999999999999</v>
+      </c>
+      <c r="R36" s="21">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="S36" s="22">
+        <v>0.99439999999999995</v>
+      </c>
+      <c r="T36" s="23">
+        <v>3.1080000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="21">
+        <v>0.89019999999999999</v>
+      </c>
+      <c r="D37" s="22">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="E37" s="23">
+        <v>12.13</v>
+      </c>
+      <c r="F37" s="21">
+        <v>0.85460000000000003</v>
+      </c>
+      <c r="G37" s="22">
+        <v>0.85960000000000003</v>
+      </c>
+      <c r="H37" s="23">
+        <v>2.0190000000000001</v>
+      </c>
+      <c r="I37" s="21">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="J37" s="22">
+        <v>0.88939999999999997</v>
+      </c>
+      <c r="K37" s="23">
+        <v>1.391</v>
+      </c>
+      <c r="L37" s="21">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="M37" s="22">
+        <v>0.93959999999999999</v>
+      </c>
+      <c r="N37" s="23">
+        <v>2.21</v>
+      </c>
+      <c r="O37" s="21">
+        <v>0.98609999999999998</v>
+      </c>
+      <c r="P37" s="22">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="Q37" s="23">
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="R37" s="21">
+        <v>0.96450000000000002</v>
+      </c>
+      <c r="S37" s="22">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="T37" s="23">
+        <v>1.9610000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="21">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="D38" s="22">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="E38" s="23">
+        <v>12.03</v>
+      </c>
+      <c r="F38" s="21">
+        <v>0.96409999999999996</v>
+      </c>
+      <c r="G38" s="22">
+        <v>0.96479999999999999</v>
+      </c>
+      <c r="H38" s="23">
+        <v>1.702</v>
+      </c>
+      <c r="I38" s="21">
+        <v>0.97119999999999995</v>
+      </c>
+      <c r="J38" s="22">
+        <v>0.98250000000000004</v>
+      </c>
+      <c r="K38" s="20">
+        <v>1.482</v>
+      </c>
+      <c r="L38" s="21">
+        <v>1.044</v>
+      </c>
+      <c r="M38" s="22">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="N38" s="23">
+        <v>1.6839999999999999</v>
+      </c>
+      <c r="O38" s="21">
+        <v>1.087</v>
+      </c>
+      <c r="P38" s="22">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="Q38" s="23">
+        <v>1.667</v>
+      </c>
+      <c r="R38" s="21">
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="S38" s="22">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="T38" s="23">
+        <v>1.611</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="24">
+        <v>1.028</v>
+      </c>
+      <c r="D39" s="25">
+        <v>1.038</v>
+      </c>
+      <c r="E39" s="26">
+        <v>12.02</v>
+      </c>
+      <c r="F39" s="24">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="G39" s="25">
+        <v>1.006</v>
+      </c>
+      <c r="H39" s="26">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="I39" s="24">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="J39" s="47">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="K39" s="49">
+        <v>1.429</v>
+      </c>
+      <c r="L39" s="48">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="M39" s="25">
+        <v>1.101</v>
+      </c>
+      <c r="N39" s="26">
+        <v>1.718</v>
+      </c>
+      <c r="O39" s="24">
+        <v>1.117</v>
+      </c>
+      <c r="P39" s="25">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="Q39" s="26">
+        <v>1.716</v>
+      </c>
+      <c r="R39" s="24">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="S39" s="25">
+        <v>1.105</v>
+      </c>
+      <c r="T39" s="26">
+        <v>1.4890000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="7">
+        <v>1</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="7">
+        <v>2</v>
+      </c>
+      <c r="J42" s="8"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="7">
+        <v>3</v>
+      </c>
+      <c r="M42" s="8"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="7">
+        <v>4</v>
+      </c>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="7">
+        <v>5</v>
+      </c>
+      <c r="S42" s="8"/>
+      <c r="T42" s="9"/>
+    </row>
+    <row r="43" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="13"/>
+      <c r="C43" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K43" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M43" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N43" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="P43" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q43" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S43" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="T43" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="15">
+        <v>2.024</v>
+      </c>
+      <c r="D44" s="16">
+        <v>2.0270000000000001</v>
+      </c>
+      <c r="E44" s="17">
+        <v>11.93</v>
+      </c>
+      <c r="F44" s="15">
+        <v>1.9019999999999999</v>
+      </c>
+      <c r="G44" s="16">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="H44" s="17">
+        <v>1.4870000000000001</v>
+      </c>
+      <c r="I44" s="15">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="J44" s="16">
+        <v>1.992</v>
+      </c>
+      <c r="K44" s="17">
+        <v>1.415</v>
+      </c>
+      <c r="L44" s="15">
+        <v>2.004</v>
+      </c>
+      <c r="M44" s="16">
+        <v>1.9970000000000001</v>
+      </c>
+      <c r="N44" s="17">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="O44" s="15">
+        <v>2.0350000000000001</v>
+      </c>
+      <c r="P44" s="16">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="Q44" s="17">
+        <v>1.577</v>
+      </c>
+      <c r="R44" s="15">
+        <v>2.0430000000000001</v>
+      </c>
+      <c r="S44" s="16">
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="T44" s="17">
+        <v>1.661</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="21">
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="D45" s="22">
+        <v>2.0539999999999998</v>
+      </c>
+      <c r="E45" s="23">
+        <v>11.97</v>
+      </c>
+      <c r="F45" s="21">
+        <v>1.907</v>
+      </c>
+      <c r="G45" s="22">
+        <v>3.617</v>
+      </c>
+      <c r="H45" s="23">
+        <v>21.83</v>
+      </c>
+      <c r="I45" s="21">
+        <v>2.024</v>
+      </c>
+      <c r="J45" s="22">
+        <v>2.012</v>
+      </c>
+      <c r="K45" s="23">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="L45" s="21">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="M45" s="22">
+        <v>2.0219999999999998</v>
+      </c>
+      <c r="N45" s="23">
+        <v>1.782</v>
+      </c>
+      <c r="O45" s="21">
+        <v>2.0569999999999999</v>
+      </c>
+      <c r="P45" s="22">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="Q45" s="23">
+        <v>1.7609999999999999</v>
+      </c>
+      <c r="R45" s="21">
+        <v>2.0910000000000002</v>
+      </c>
+      <c r="S45" s="22">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="T45" s="23">
+        <v>2.8580000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="21">
+        <v>2.0470000000000002</v>
+      </c>
+      <c r="D46" s="22">
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="E46" s="23">
+        <v>11.93</v>
+      </c>
+      <c r="F46" s="21">
+        <v>1.9039999999999999</v>
+      </c>
+      <c r="G46" s="22">
+        <v>1.921</v>
+      </c>
+      <c r="H46" s="23">
+        <v>1.409</v>
+      </c>
+      <c r="I46" s="21">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="J46" s="22">
+        <v>2.0110000000000001</v>
+      </c>
+      <c r="K46" s="23">
+        <v>1.45</v>
+      </c>
+      <c r="L46" s="21">
+        <v>2.0150000000000001</v>
+      </c>
+      <c r="M46" s="22">
+        <v>2.008</v>
+      </c>
+      <c r="N46" s="23">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="O46" s="21">
+        <v>2.0590000000000002</v>
+      </c>
+      <c r="P46" s="22">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="Q46" s="23">
+        <v>1.5069999999999999</v>
+      </c>
+      <c r="R46" s="21">
+        <v>2.093</v>
+      </c>
+      <c r="S46" s="22">
+        <v>2.089</v>
+      </c>
+      <c r="T46" s="23">
+        <v>1.528</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="21">
+        <v>2.0529999999999999</v>
+      </c>
+      <c r="D47" s="22">
+        <v>2.0489999999999999</v>
+      </c>
+      <c r="E47" s="23">
+        <v>11.93</v>
+      </c>
+      <c r="F47" s="21">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="G47" s="22">
+        <v>1.925</v>
+      </c>
+      <c r="H47" s="23">
+        <v>1.389</v>
+      </c>
+      <c r="I47" s="21">
+        <v>2.0310000000000001</v>
+      </c>
+      <c r="J47" s="22">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="K47" s="20">
+        <v>1.351</v>
+      </c>
+      <c r="L47" s="21">
+        <v>2.0190000000000001</v>
+      </c>
+      <c r="M47" s="22">
+        <v>2.0110000000000001</v>
+      </c>
+      <c r="N47" s="23">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="O47" s="21">
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="P47" s="22">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="Q47" s="23">
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="R47" s="21">
+        <v>2.0979999999999999</v>
+      </c>
+      <c r="S47" s="22">
+        <v>2.093</v>
+      </c>
+      <c r="T47" s="23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="24">
+        <v>2.0529999999999999</v>
+      </c>
+      <c r="D48" s="25">
+        <v>2.048</v>
+      </c>
+      <c r="E48" s="26">
+        <v>11.93</v>
+      </c>
+      <c r="F48" s="24">
+        <v>1.9079999999999999</v>
+      </c>
+      <c r="G48" s="25">
+        <v>1.925</v>
+      </c>
+      <c r="H48" s="26">
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="I48" s="24">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J48" s="47">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="K48" s="49">
+        <v>1.347</v>
+      </c>
+      <c r="L48" s="48">
+        <v>2.0190000000000001</v>
+      </c>
+      <c r="M48" s="25">
+        <v>2.0110000000000001</v>
+      </c>
+      <c r="N48" s="26">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="O48" s="24">
+        <v>2.0609999999999999</v>
+      </c>
+      <c r="P48" s="25">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="Q48" s="26">
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="R48" s="24">
+        <v>2.0979999999999999</v>
+      </c>
+      <c r="S48" s="25">
+        <v>2.093</v>
+      </c>
+      <c r="T48" s="26">
+        <v>1.496</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="7">
+        <v>1</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="7">
+        <v>2</v>
+      </c>
+      <c r="J51" s="8"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="7">
+        <v>3</v>
+      </c>
+      <c r="M51" s="8"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="7">
+        <v>4</v>
+      </c>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="7">
+        <v>5</v>
+      </c>
+      <c r="S51" s="8"/>
+      <c r="T51" s="9"/>
+    </row>
+    <row r="52" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="13"/>
+      <c r="C52" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="M52" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N52" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="P52" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q52" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S52" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="T52" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="15">
+        <v>1.887</v>
+      </c>
+      <c r="D53" s="16">
+        <v>1.907</v>
+      </c>
+      <c r="E53" s="17">
+        <v>11.94</v>
+      </c>
+      <c r="F53" s="15">
+        <v>1.806</v>
+      </c>
+      <c r="G53" s="16">
+        <v>1.825</v>
+      </c>
+      <c r="H53" s="17">
+        <v>1.5289999999999999</v>
+      </c>
+      <c r="I53" s="15">
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="J53" s="16">
+        <v>1.8660000000000001</v>
+      </c>
+      <c r="K53" s="17">
+        <v>1.323</v>
+      </c>
+      <c r="L53" s="15">
+        <v>1.889</v>
+      </c>
+      <c r="M53" s="16">
+        <v>1.8939999999999999</v>
+      </c>
+      <c r="N53" s="17">
+        <v>1.528</v>
+      </c>
+      <c r="O53" s="15">
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="P53" s="16">
+        <v>1.919</v>
+      </c>
+      <c r="Q53" s="17">
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="R53" s="15">
+        <v>1.927</v>
+      </c>
+      <c r="S53" s="16">
+        <v>1.9490000000000001</v>
+      </c>
+      <c r="T53" s="17">
+        <v>1.7529999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="21">
+        <v>1.97</v>
+      </c>
+      <c r="D54" s="22">
+        <v>1.982</v>
+      </c>
+      <c r="E54" s="23">
+        <v>11.94</v>
+      </c>
+      <c r="F54" s="21">
+        <v>1.871</v>
+      </c>
+      <c r="G54" s="22">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="H54" s="23">
+        <v>1.5309999999999999</v>
+      </c>
+      <c r="I54" s="21">
+        <v>1.966</v>
+      </c>
+      <c r="J54" s="22">
+        <v>1.968</v>
+      </c>
+      <c r="K54" s="23">
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="L54" s="21">
+        <v>2.0070000000000001</v>
+      </c>
+      <c r="M54" s="22">
+        <v>2.0030000000000001</v>
+      </c>
+      <c r="N54" s="23">
+        <v>1.708</v>
+      </c>
+      <c r="O54" s="21">
+        <v>1.9790000000000001</v>
+      </c>
+      <c r="P54" s="22">
+        <v>1.996</v>
+      </c>
+      <c r="Q54" s="23">
+        <v>1.659</v>
+      </c>
+      <c r="R54" s="21">
+        <v>2.0489999999999999</v>
+      </c>
+      <c r="S54" s="22">
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="T54" s="23">
+        <v>1.7050000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="21">
+        <v>1.9710000000000001</v>
+      </c>
+      <c r="D55" s="22">
+        <v>1.982</v>
+      </c>
+      <c r="E55" s="23">
+        <v>11.92</v>
+      </c>
+      <c r="F55" s="21">
+        <v>1.8720000000000001</v>
+      </c>
+      <c r="G55" s="22">
+        <v>1.887</v>
+      </c>
+      <c r="H55" s="23">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="I55" s="21">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="J55" s="22">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="K55" s="23">
+        <v>1.353</v>
+      </c>
+      <c r="L55" s="21">
+        <v>2.008</v>
+      </c>
+      <c r="M55" s="22">
+        <v>2.0019999999999998</v>
+      </c>
+      <c r="N55" s="23">
+        <v>1.6419999999999999</v>
+      </c>
+      <c r="O55" s="21">
+        <v>1.98</v>
+      </c>
+      <c r="P55" s="22">
+        <v>1.996</v>
+      </c>
+      <c r="Q55" s="23">
+        <v>1.56</v>
+      </c>
+      <c r="R55" s="21">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="S55" s="22">
+        <v>2.0609999999999999</v>
+      </c>
+      <c r="T55" s="23">
+        <v>1.611</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="21">
+        <v>1.9770000000000001</v>
+      </c>
+      <c r="D56" s="22">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="E56" s="23">
+        <v>11.93</v>
+      </c>
+      <c r="F56" s="21">
+        <v>1.877</v>
+      </c>
+      <c r="G56" s="22">
+        <v>1.891</v>
+      </c>
+      <c r="H56" s="23">
+        <v>1.4219999999999999</v>
+      </c>
+      <c r="I56" s="21">
+        <v>1.974</v>
+      </c>
+      <c r="J56" s="22">
+        <v>1.9710000000000001</v>
+      </c>
+      <c r="K56" s="20">
+        <v>1.32</v>
+      </c>
+      <c r="L56" s="21">
+        <v>2.0129999999999999</v>
+      </c>
+      <c r="M56" s="22">
+        <v>2.004</v>
+      </c>
+      <c r="N56" s="23">
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="O56" s="21">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="P56" s="22">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="Q56" s="23">
+        <v>1.552</v>
+      </c>
+      <c r="R56" s="21">
+        <v>2.056</v>
+      </c>
+      <c r="S56" s="22">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="T56" s="23">
+        <v>1.6120000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="24">
+        <v>1.9770000000000001</v>
+      </c>
+      <c r="D57" s="25">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="E57" s="26">
+        <v>11.94</v>
+      </c>
+      <c r="F57" s="24">
+        <v>1.8779999999999999</v>
+      </c>
+      <c r="G57" s="25">
+        <v>1.891</v>
+      </c>
+      <c r="H57" s="26">
+        <v>1.4219999999999999</v>
+      </c>
+      <c r="I57" s="24">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="J57" s="47">
+        <v>1.9730000000000001</v>
+      </c>
+      <c r="K57" s="49">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="L57" s="48">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="M57" s="25">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="N57" s="26">
+        <v>1.623</v>
+      </c>
+      <c r="O57" s="24">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="P57" s="25">
+        <v>2</v>
+      </c>
+      <c r="Q57" s="26">
+        <v>1.548</v>
+      </c>
+      <c r="R57" s="24">
+        <v>2.056</v>
+      </c>
+      <c r="S57" s="25">
+        <v>2.0659999999999998</v>
+      </c>
+      <c r="T57" s="26">
+        <v>1.611</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="O51:Q51"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="O42:Q42"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C6:E10">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:H10">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:K10">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:N10">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:Q10">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6:T10">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:E21">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17:H21">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17:K21">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17:N21">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O17:Q21">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17:T21">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:E30">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:H30">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:K30">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26:N30">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26:Q30">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R26:T30">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35:E39">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:H39">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I35:K39">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35:N39">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O35:Q39">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R35:T39">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44:E48">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44:H48">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:K48">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44:N48">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O44:Q48">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R44:T48">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53:E57">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53:H57">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53:K57">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L53:N57">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O53:Q57">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R53:T57">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80BAB95-1ED6-40E4-AEC1-9E83865368E4}">
+  <dimension ref="B1:T8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="20" width="6.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="28">
+        <v>1</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="28">
+        <v>2</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="28">
+        <v>3</v>
+      </c>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="28">
+        <v>4</v>
+      </c>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="28">
+        <v>5</v>
+      </c>
+      <c r="S2" s="29"/>
+      <c r="T2" s="30"/>
+    </row>
+    <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="36">
+        <v>1.91</v>
+      </c>
+      <c r="D4" s="37">
+        <v>1.9339999999999999</v>
+      </c>
+      <c r="E4" s="38">
+        <v>11.94</v>
+      </c>
+      <c r="F4" s="36">
+        <v>1.776</v>
+      </c>
+      <c r="G4" s="37">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="H4" s="38">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="I4" s="36">
+        <v>1.87</v>
+      </c>
+      <c r="J4" s="37">
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="K4" s="38">
+        <v>1.41</v>
+      </c>
+      <c r="L4" s="36">
+        <v>1.849</v>
+      </c>
+      <c r="M4" s="37">
+        <v>1.873</v>
+      </c>
+      <c r="N4" s="38">
+        <v>1.66</v>
+      </c>
+      <c r="O4" s="36">
+        <v>1.857</v>
+      </c>
+      <c r="P4" s="37">
+        <v>1.883</v>
+      </c>
+      <c r="Q4" s="38">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="R4" s="36">
+        <v>1.8979999999999999</v>
+      </c>
+      <c r="S4" s="37">
+        <v>1.923</v>
+      </c>
+      <c r="T4" s="38">
+        <v>1.655</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="40">
+        <v>1.988</v>
+      </c>
+      <c r="D5" s="41">
+        <v>1.994</v>
+      </c>
+      <c r="E5" s="42">
+        <v>11.94</v>
+      </c>
+      <c r="F5" s="40">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="G5" s="41">
+        <v>1.9970000000000001</v>
+      </c>
+      <c r="H5" s="42">
+        <v>11.94</v>
+      </c>
+      <c r="I5" s="40">
+        <v>1.857</v>
+      </c>
+      <c r="J5" s="41">
+        <v>1.8640000000000001</v>
+      </c>
+      <c r="K5" s="42">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="L5" s="40">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="M5" s="41">
+        <v>1.9550000000000001</v>
+      </c>
+      <c r="N5" s="42">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="O5" s="40">
+        <v>1.9370000000000001</v>
+      </c>
+      <c r="P5" s="41">
+        <v>1.948</v>
+      </c>
+      <c r="Q5" s="42">
+        <v>1.605</v>
+      </c>
+      <c r="R5" s="40">
+        <v>1.9339999999999999</v>
+      </c>
+      <c r="S5" s="41">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="T5" s="42">
+        <v>1.5720000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="40">
+        <v>1.9890000000000001</v>
+      </c>
+      <c r="D6" s="41">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="E6" s="42">
+        <v>11.94</v>
+      </c>
+      <c r="F6" s="40">
+        <v>1.859</v>
+      </c>
+      <c r="G6" s="41">
+        <v>1.861</v>
+      </c>
+      <c r="H6" s="42">
+        <v>1.387</v>
+      </c>
+      <c r="I6" s="40">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="J6" s="41">
+        <v>1.952</v>
+      </c>
+      <c r="K6" s="42">
+        <v>1.359</v>
+      </c>
+      <c r="L6" s="40">
+        <v>1.94</v>
+      </c>
+      <c r="M6" s="41">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="N6" s="42">
+        <v>1.58</v>
+      </c>
+      <c r="O6" s="40">
+        <v>1.9359999999999999</v>
+      </c>
+      <c r="P6" s="41">
+        <v>1.9410000000000001</v>
+      </c>
+      <c r="Q6" s="42">
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="R6" s="40">
+        <v>1.9830000000000001</v>
+      </c>
+      <c r="S6" s="41">
+        <v>1.986</v>
+      </c>
+      <c r="T6" s="42">
+        <v>1.617</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="40">
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="D7" s="41">
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="E7" s="42">
+        <v>11.94</v>
+      </c>
+      <c r="F7" s="40">
+        <v>1.903</v>
+      </c>
+      <c r="G7" s="41">
+        <v>1.9019999999999999</v>
+      </c>
+      <c r="H7" s="42">
+        <v>1.373</v>
+      </c>
+      <c r="I7" s="40">
+        <v>1.9850000000000001</v>
+      </c>
+      <c r="J7" s="41">
+        <v>1.9890000000000001</v>
+      </c>
+      <c r="K7" s="42">
+        <v>1.337</v>
+      </c>
+      <c r="L7" s="40">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="M7" s="41">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="N7" s="42">
+        <v>1.56</v>
+      </c>
+      <c r="O7" s="40">
+        <v>1.982</v>
+      </c>
+      <c r="P7" s="41">
+        <v>1.9850000000000001</v>
+      </c>
+      <c r="Q7" s="42">
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="R7" s="40">
+        <v>2.028</v>
+      </c>
+      <c r="S7" s="41">
+        <v>2.0270000000000001</v>
+      </c>
+      <c r="T7" s="42">
+        <v>1.6040000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="44">
+        <v>2.0459999999999998</v>
+      </c>
+      <c r="D8" s="45">
+        <v>2.0470000000000002</v>
+      </c>
+      <c r="E8" s="46">
+        <v>11.94</v>
+      </c>
+      <c r="F8" s="44">
+        <v>1.907</v>
+      </c>
+      <c r="G8" s="45">
+        <v>1.907</v>
+      </c>
+      <c r="H8" s="46">
+        <v>1.373</v>
+      </c>
+      <c r="I8" s="44">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="J8" s="45">
+        <v>1.992</v>
+      </c>
+      <c r="K8" s="46">
+        <v>1.337</v>
+      </c>
+      <c r="L8" s="44">
+        <v>2.004</v>
+      </c>
+      <c r="M8" s="45">
+        <v>2.0059999999999998</v>
+      </c>
+      <c r="N8" s="46">
+        <v>1.5609999999999999</v>
+      </c>
+      <c r="O8" s="44">
+        <v>1.9850000000000001</v>
+      </c>
+      <c r="P8" s="45">
+        <v>1.988</v>
+      </c>
+      <c r="Q8" s="46">
+        <v>1.512</v>
+      </c>
+      <c r="R8" s="44">
+        <v>2.032</v>
+      </c>
+      <c r="S8" s="45">
+        <v>2.0310000000000001</v>
+      </c>
+      <c r="T8" s="46">
+        <v>1.603</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C4:E8">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:H8">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:K8">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:N8">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:Q8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4:T8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72EB599-0E22-43CE-BCF8-51DAEA82581C}">
+  <dimension ref="A1:G65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1962786</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(ISNA(VLOOKUP(A2,$E$2:$E$65,1,0)),"",D2)</f>
+        <v/>
+      </c>
+      <c r="G2" s="5">
+        <f>SUM(B2:B6)</f>
+        <v>2824323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="5">
+        <v>346167</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="str">
+        <f>IF(ISNA(VLOOKUP(A3,$E$2:$E$65,1,0)),"",D3)</f>
+        <v/>
+      </c>
+      <c r="G3">
+        <f>G2/3387876</f>
+        <v>0.83365595435015927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="5">
+        <v>216566</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="5">
+        <v>162353</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="5">
+        <v>136451</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
+        <v>132419</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5">
+        <v>84533</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5">
+        <v>78724</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5">
+        <v>67168</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5">
+        <v>36000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5">
+        <v>32496</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5">
+        <v>25692</v>
+      </c>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5">
+        <v>15342</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5">
+        <v>14748</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="5">
+        <v>13811</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="5">
+        <v>9169</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5">
+        <v>5970</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="5">
+        <v>4806</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="5">
+        <v>4133</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="5">
+        <v>4072</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="5">
+        <v>3000</v>
+      </c>
+      <c r="D22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2987</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2919</v>
+      </c>
+      <c r="D24" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2575</v>
+      </c>
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2395</v>
+      </c>
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1745</v>
+      </c>
+      <c r="D27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1715</v>
+      </c>
+      <c r="D28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1620</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1419</v>
+      </c>
+      <c r="D30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1339</v>
+      </c>
+      <c r="D31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1292</v>
+      </c>
+      <c r="D32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1282</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1197</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1189</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="5">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="5">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="5">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="5">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="5">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="5">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="5">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" s="5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Python\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A6D0C9-E933-41B5-8B7C-5FC753BB7674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5A0C1E-B140-439B-B163-CC359FFAD5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{570308FA-57AA-44D8-AB6B-3FED48127706}"/>
+    <workbookView xWindow="21330" yWindow="4410" windowWidth="14325" windowHeight="9975" activeTab="1" xr2:uid="{570308FA-57AA-44D8-AB6B-3FED48127706}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1291,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3CEECB-CE64-4449-A204-376D56E552FB}">
   <dimension ref="B3:AA57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="Y4">
         <f>SMALL(N6:N57,1)</f>
-        <v>1.3919999999999999</v>
+        <v>1.528</v>
       </c>
       <c r="Z4">
         <f>SMALL(Q6:Q57,1)</f>
@@ -1510,49 +1510,49 @@
         <v>11.94</v>
       </c>
       <c r="F7" s="21">
-        <v>1.9870000000000001</v>
+        <v>1.857</v>
       </c>
       <c r="G7" s="22">
-        <v>1.9970000000000001</v>
+        <v>1.8640000000000001</v>
       </c>
       <c r="H7" s="23">
-        <v>11.94</v>
+        <v>1.4119999999999999</v>
       </c>
       <c r="I7" s="21">
-        <v>1.857</v>
+        <v>1.9430000000000001</v>
       </c>
       <c r="J7" s="22">
-        <v>1.8640000000000001</v>
+        <v>1.9550000000000001</v>
       </c>
       <c r="K7" s="23">
-        <v>1.4119999999999999</v>
+        <v>1.3919999999999999</v>
       </c>
       <c r="L7" s="21">
-        <v>1.9430000000000001</v>
+        <v>1.9370000000000001</v>
       </c>
       <c r="M7" s="22">
-        <v>1.9550000000000001</v>
+        <v>1.948</v>
       </c>
       <c r="N7" s="23">
-        <v>1.3919999999999999</v>
+        <v>1.605</v>
       </c>
       <c r="O7" s="21">
-        <v>1.9370000000000001</v>
+        <v>1.9339999999999999</v>
       </c>
       <c r="P7" s="22">
-        <v>1.948</v>
+        <v>1.9450000000000001</v>
       </c>
       <c r="Q7" s="23">
-        <v>1.605</v>
+        <v>1.5720000000000001</v>
       </c>
       <c r="R7" s="21">
-        <v>1.9339999999999999</v>
+        <v>1.9810000000000001</v>
       </c>
       <c r="S7" s="22">
-        <v>1.9450000000000001</v>
+        <v>1.9881</v>
       </c>
       <c r="T7" s="23">
-        <v>1.5720000000000001</v>
+        <v>1.6379999999999999</v>
       </c>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.25">

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Python\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5A0C1E-B140-439B-B163-CC359FFAD5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8376EE-497F-4B9B-8E6A-F4DE8D11943C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21330" yWindow="4410" windowWidth="14325" windowHeight="9975" activeTab="1" xr2:uid="{570308FA-57AA-44D8-AB6B-3FED48127706}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{570308FA-57AA-44D8-AB6B-3FED48127706}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -780,23 +780,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -833,21 +818,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -899,6 +869,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3CEECB-CE64-4449-A204-376D56E552FB}">
   <dimension ref="B3:AA57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,39 +1322,39 @@
       </c>
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="7">
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="43">
         <v>1</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="7">
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="43">
         <v>2</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="7">
+      <c r="J4" s="44"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="43">
         <v>3</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="7">
+      <c r="M4" s="44"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="43">
         <v>4</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="7">
+      <c r="P4" s="44"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="43">
         <v>5</v>
       </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="9"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="45"/>
       <c r="V4">
         <f>SMALL(E6:E57,1)</f>
         <v>11.92</v>
@@ -1381,2305 +1381,2323 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="18" t="s">
+      <c r="R5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="S5" s="19" t="s">
+      <c r="S5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="T5" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="10">
         <v>1.91</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="11">
         <v>1.9339999999999999</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="12">
         <v>11.94</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="10">
         <v>1.776</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="11">
         <v>1.7949999999999999</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="12">
         <v>1.4610000000000001</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="10">
         <v>1.87</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="11">
         <v>1.8919999999999999</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="12">
         <v>1.41</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="10">
         <v>1.849</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="11">
         <v>1.873</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N6" s="12">
         <v>1.66</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="10">
         <v>1.857</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="11">
         <v>1.883</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="12">
         <v>1.6060000000000001</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="10">
         <v>1.8979999999999999</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="11">
         <v>1.923</v>
       </c>
-      <c r="T6" s="17">
+      <c r="T6" s="12">
         <v>1.655</v>
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="16">
         <v>1.988</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="17">
         <v>1.994</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="18">
         <v>11.94</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="16">
         <v>1.857</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="17">
         <v>1.8640000000000001</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="18">
         <v>1.4119999999999999</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="16">
         <v>1.9430000000000001</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="17">
         <v>1.9550000000000001</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="18">
         <v>1.3919999999999999</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="16">
         <v>1.9370000000000001</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="17">
         <v>1.948</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="18">
         <v>1.605</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="16">
         <v>1.9339999999999999</v>
       </c>
-      <c r="P7" s="22">
+      <c r="P7" s="17">
         <v>1.9450000000000001</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="18">
         <v>1.5720000000000001</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="16">
         <v>1.9810000000000001</v>
       </c>
-      <c r="S7" s="22">
+      <c r="S7" s="17">
         <v>1.9881</v>
       </c>
-      <c r="T7" s="23">
+      <c r="T7" s="18">
         <v>1.6379999999999999</v>
       </c>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="16">
         <v>1.9890000000000001</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="17">
         <v>1.9930000000000001</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="18">
         <v>11.94</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="16">
         <v>1.859</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="17">
         <v>1.861</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="18">
         <v>1.387</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="16">
         <v>1.9450000000000001</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="17">
         <v>1.952</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="18">
         <v>1.359</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="16">
         <v>1.94</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="17">
         <v>1.9450000000000001</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="18">
         <v>1.58</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="16">
         <v>1.9359999999999999</v>
       </c>
-      <c r="P8" s="22">
+      <c r="P8" s="17">
         <v>1.9410000000000001</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="18">
         <v>1.5489999999999999</v>
       </c>
-      <c r="R8" s="21">
+      <c r="R8" s="16">
         <v>1.9830000000000001</v>
       </c>
-      <c r="S8" s="22">
+      <c r="S8" s="17">
         <v>1.986</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="18">
         <v>1.617</v>
       </c>
     </row>
     <row r="9" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="16">
         <v>2.0449999999999999</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="17">
         <v>2.0449999999999999</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="18">
         <v>11.94</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="16">
         <v>1.903</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="17">
         <v>1.9019999999999999</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="18">
         <v>1.373</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="16">
         <v>1.9850000000000001</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="17">
         <v>1.9890000000000001</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="15">
         <v>1.337</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="16">
         <v>1.9990000000000001</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="17">
         <v>2.0009999999999999</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="18">
         <v>1.56</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="16">
         <v>1.982</v>
       </c>
-      <c r="P9" s="22">
+      <c r="P9" s="17">
         <v>1.9850000000000001</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="18">
         <v>1.5169999999999999</v>
       </c>
-      <c r="R9" s="21">
+      <c r="R9" s="16">
         <v>2.028</v>
       </c>
-      <c r="S9" s="22">
+      <c r="S9" s="17">
         <v>2.0270000000000001</v>
       </c>
-      <c r="T9" s="23">
+      <c r="T9" s="18">
         <v>1.6040000000000001</v>
       </c>
     </row>
     <row r="10" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="19">
         <v>2.0459999999999998</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="20">
         <v>2.0470000000000002</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="21">
         <v>11.94</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="19">
         <v>1.907</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="20">
         <v>1.907</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="21">
         <v>1.373</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="19">
         <v>1.9870000000000001</v>
       </c>
-      <c r="J10" s="47">
+      <c r="J10" s="37">
         <v>1.992</v>
       </c>
-      <c r="K10" s="49">
+      <c r="K10" s="39">
         <v>1.337</v>
       </c>
-      <c r="L10" s="48">
+      <c r="L10" s="38">
         <v>2.004</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="20">
         <v>2.0059999999999998</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="21">
         <v>1.5609999999999999</v>
       </c>
-      <c r="O10" s="24">
+      <c r="O10" s="19">
         <v>1.9850000000000001</v>
       </c>
-      <c r="P10" s="25">
+      <c r="P10" s="20">
         <v>1.988</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="21">
         <v>1.512</v>
       </c>
-      <c r="R10" s="24">
+      <c r="R10" s="19">
         <v>2.032</v>
       </c>
-      <c r="S10" s="25">
+      <c r="S10" s="20">
         <v>2.0310000000000001</v>
       </c>
-      <c r="T10" s="26">
+      <c r="T10" s="21">
         <v>1.603</v>
       </c>
     </row>
     <row r="14" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="7">
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="43">
         <v>1</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="7">
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="43">
         <v>2</v>
       </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="7">
+      <c r="J15" s="44"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="43">
         <v>3</v>
       </c>
-      <c r="M15" s="8"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="7">
+      <c r="M15" s="44"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="43">
         <v>4</v>
       </c>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="7">
+      <c r="P15" s="44"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="43">
         <v>5</v>
       </c>
-      <c r="S15" s="8"/>
-      <c r="T15" s="9"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="45"/>
     </row>
     <row r="16" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L16" s="18" t="s">
+      <c r="L16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="19" t="s">
+      <c r="M16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="20" t="s">
+      <c r="N16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="O16" s="18" t="s">
+      <c r="O16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P16" s="19" t="s">
+      <c r="P16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Q16" s="20" t="s">
+      <c r="Q16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="R16" s="18" t="s">
+      <c r="R16" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="S16" s="19" t="s">
+      <c r="S16" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="T16" s="20" t="s">
+      <c r="T16" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="10">
         <v>1.9890000000000001</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="11">
         <v>1.992</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="12">
         <v>11.96</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="10">
         <v>1.857</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="11">
         <v>1.863</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="12">
         <v>1.478</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="10">
         <v>1.9510000000000001</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="11">
         <v>1.9570000000000001</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="12">
         <v>1.4319999999999999</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="10">
         <v>1.9239999999999999</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="11">
         <v>1.931</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N17" s="12">
         <v>1.7030000000000001</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="10">
         <v>1.9339999999999999</v>
       </c>
-      <c r="P17" s="16">
+      <c r="P17" s="11">
         <v>1.944</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="12">
         <v>1.623</v>
       </c>
-      <c r="R17" s="15">
+      <c r="R17" s="10">
         <v>1.97</v>
       </c>
-      <c r="S17" s="16">
+      <c r="S17" s="11">
         <v>1.9770000000000001</v>
       </c>
-      <c r="T17" s="17">
+      <c r="T17" s="12">
         <v>1.68</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="16">
         <v>2.0529999999999999</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="17">
         <v>2.056</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="18">
         <v>12.1</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="16">
         <v>1.919</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="17">
         <v>1.9239999999999999</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="18">
         <v>2.27</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="16">
         <v>1.004</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="17">
         <v>2.0089999999999999</v>
       </c>
-      <c r="K18" s="23">
+      <c r="K18" s="18">
         <v>2.4780000000000002</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="16">
         <v>1.972</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M18" s="17">
         <v>1.98</v>
       </c>
-      <c r="N18" s="23">
+      <c r="N18" s="18">
         <v>2.6190000000000002</v>
       </c>
-      <c r="O18" s="21">
+      <c r="O18" s="16">
         <v>1.978</v>
       </c>
-      <c r="P18" s="22">
+      <c r="P18" s="17">
         <v>1.9890000000000001</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="Q18" s="18">
         <v>2.3039999999999998</v>
       </c>
-      <c r="R18" s="21">
+      <c r="R18" s="16">
         <v>2.2999999999999998</v>
       </c>
-      <c r="S18" s="22">
+      <c r="S18" s="17">
         <v>2.38</v>
       </c>
-      <c r="T18" s="23">
+      <c r="T18" s="18">
         <v>2.653</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="16">
         <v>2.0539999999999998</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="17">
         <v>2.0529999999999999</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="18">
         <v>11.94</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="16">
         <v>1.92</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="17">
         <v>1.923</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="18">
         <v>1.4079999999999999</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="16">
         <v>2.0049999999999999</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="17">
         <v>2.0059999999999998</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="18">
         <v>1.3560000000000001</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="16">
         <v>1.9730000000000001</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="17">
         <v>1.978</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="18">
         <v>1.5720000000000001</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="16">
         <v>1.9790000000000001</v>
       </c>
-      <c r="P19" s="22">
+      <c r="P19" s="17">
         <v>1.986</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="Q19" s="18">
         <v>1.5449999999999999</v>
       </c>
-      <c r="R19" s="21">
+      <c r="R19" s="16">
         <v>2.0310000000000001</v>
       </c>
-      <c r="S19" s="22">
+      <c r="S19" s="17">
         <v>2.0350000000000001</v>
       </c>
-      <c r="T19" s="23">
+      <c r="T19" s="18">
         <v>1.625</v>
       </c>
     </row>
     <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="16">
         <v>2.0619999999999998</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="17">
         <v>2.06</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="18">
         <v>11.94</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="16">
         <v>1.925</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="17">
         <v>1.927</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="18">
         <v>1.3680000000000001</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="16">
         <v>2.012</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="17">
         <v>2.012</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="15">
         <v>1.3360000000000001</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L20" s="16">
         <v>1.9810000000000001</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="17">
         <v>1.9850000000000001</v>
       </c>
-      <c r="N20" s="23">
+      <c r="N20" s="18">
         <v>1.5609999999999999</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O20" s="16">
         <v>1.9850000000000001</v>
       </c>
-      <c r="P20" s="22">
+      <c r="P20" s="17">
         <v>1.9910000000000001</v>
       </c>
-      <c r="Q20" s="23">
+      <c r="Q20" s="18">
         <v>1.508</v>
       </c>
-      <c r="R20" s="21">
+      <c r="R20" s="16">
         <v>2.036</v>
       </c>
-      <c r="S20" s="22">
+      <c r="S20" s="17">
         <v>2.0390000000000001</v>
       </c>
-      <c r="T20" s="23">
+      <c r="T20" s="18">
         <v>1.6080000000000001</v>
       </c>
     </row>
     <row r="21" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="19">
         <v>2.0619999999999998</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="20">
         <v>2.06</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="21">
         <v>11.94</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="19">
         <v>1.925</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="20">
         <v>1.927</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="21">
         <v>1.369</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="19">
         <v>2.0139999999999998</v>
       </c>
-      <c r="J21" s="47">
+      <c r="J21" s="37">
         <v>2.0139999999999998</v>
       </c>
-      <c r="K21" s="49">
+      <c r="K21" s="39">
         <v>1.3360000000000001</v>
       </c>
-      <c r="L21" s="48">
+      <c r="L21" s="38">
         <v>1.98</v>
       </c>
-      <c r="M21" s="25">
+      <c r="M21" s="20">
         <v>1.984</v>
       </c>
-      <c r="N21" s="26">
+      <c r="N21" s="21">
         <v>1.5620000000000001</v>
       </c>
-      <c r="O21" s="24">
+      <c r="O21" s="19">
         <v>1.9850000000000001</v>
       </c>
-      <c r="P21" s="25">
+      <c r="P21" s="20">
         <v>1.9910000000000001</v>
       </c>
-      <c r="Q21" s="26">
+      <c r="Q21" s="21">
         <v>1.5069999999999999</v>
       </c>
-      <c r="R21" s="24">
+      <c r="R21" s="19">
         <v>2.036</v>
       </c>
-      <c r="S21" s="25">
+      <c r="S21" s="20">
         <v>2.0390000000000001</v>
       </c>
-      <c r="T21" s="26">
+      <c r="T21" s="21">
         <v>1.6</v>
       </c>
     </row>
     <row r="23" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="7">
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="43">
         <v>1</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="7">
+      <c r="G24" s="44"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="43">
         <v>2</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="7">
+      <c r="J24" s="44"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="43">
         <v>3</v>
       </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="7">
+      <c r="M24" s="44"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="43">
         <v>4</v>
       </c>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="7">
+      <c r="P24" s="44"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="43">
         <v>5</v>
       </c>
-      <c r="S24" s="8"/>
-      <c r="T24" s="9"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="45"/>
     </row>
     <row r="25" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
-      <c r="C25" s="18" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="19" t="s">
+      <c r="G25" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L25" s="18" t="s">
+      <c r="L25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="M25" s="19" t="s">
+      <c r="M25" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="N25" s="20" t="s">
+      <c r="N25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="O25" s="18" t="s">
+      <c r="O25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P25" s="19" t="s">
+      <c r="P25" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Q25" s="20" t="s">
+      <c r="Q25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="R25" s="18" t="s">
+      <c r="R25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="S25" s="19" t="s">
+      <c r="S25" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="T25" s="20" t="s">
+      <c r="T25" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="10">
         <v>1.8360000000000001</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="11">
         <v>1.9359999999999999</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="12">
         <v>12.05</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="10">
         <v>1.7150000000000001</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="11">
         <v>1.8029999999999999</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="12">
         <v>1.6479999999999999</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="10">
         <v>1.7629999999999999</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="11">
         <v>1.879</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="12">
         <v>1.778</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="10">
         <v>1.778</v>
       </c>
-      <c r="M26" s="16">
+      <c r="M26" s="11">
         <v>1.8919999999999999</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N26" s="12">
         <v>1.5980000000000001</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O26" s="10">
         <v>1.7589999999999999</v>
       </c>
-      <c r="P26" s="16">
+      <c r="P26" s="11">
         <v>1.8740000000000001</v>
       </c>
-      <c r="Q26" s="17">
+      <c r="Q26" s="12">
         <v>1.732</v>
       </c>
-      <c r="R26" s="15">
+      <c r="R26" s="10">
         <v>1.794</v>
       </c>
-      <c r="S26" s="16">
+      <c r="S26" s="11">
         <v>1.913</v>
       </c>
-      <c r="T26" s="17">
+      <c r="T26" s="12">
         <v>1.64</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="16">
         <v>1.9950000000000001</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="17">
         <v>195.6</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="18">
         <v>1773</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="16">
         <v>1.8520000000000001</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G27" s="17">
         <v>623.9</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="18">
         <v>6483</v>
       </c>
-      <c r="I27" s="21">
+      <c r="I27" s="16">
         <v>1.946</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="17">
         <v>599.1</v>
       </c>
-      <c r="K27" s="23">
+      <c r="K27" s="18">
         <v>6157</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L27" s="16">
         <v>1.956</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M27" s="17">
         <v>888.6</v>
       </c>
-      <c r="N27" s="23">
+      <c r="N27" s="18">
         <v>7814</v>
       </c>
-      <c r="O27" s="21">
+      <c r="O27" s="16">
         <v>1.919</v>
       </c>
-      <c r="P27" s="22">
+      <c r="P27" s="17">
         <v>336.8</v>
       </c>
-      <c r="Q27" s="23">
+      <c r="Q27" s="18">
         <v>3631</v>
       </c>
-      <c r="R27" s="21">
+      <c r="R27" s="16">
         <v>2.0249999999999999</v>
       </c>
-      <c r="S27" s="22">
+      <c r="S27" s="17">
         <v>1322</v>
       </c>
-      <c r="T27" s="23">
+      <c r="T27" s="18">
         <v>12300</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="16">
         <v>2.0019999999999998</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="17">
         <v>2.012</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="18">
         <v>11.99</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="16">
         <v>1.8460000000000001</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G28" s="17">
         <v>1.861</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="18">
         <v>1.4159999999999999</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="16">
         <v>1.9370000000000001</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="17">
         <v>1.9510000000000001</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="18">
         <v>1.349</v>
       </c>
-      <c r="L28" s="21">
+      <c r="L28" s="16">
         <v>1.94</v>
       </c>
-      <c r="M28" s="22">
+      <c r="M28" s="17">
         <v>1.958</v>
       </c>
-      <c r="N28" s="23">
+      <c r="N28" s="18">
         <v>1.62</v>
       </c>
-      <c r="O28" s="21">
+      <c r="O28" s="16">
         <v>1.9219999999999999</v>
       </c>
-      <c r="P28" s="22">
+      <c r="P28" s="17">
         <v>1.946</v>
       </c>
-      <c r="Q28" s="23">
+      <c r="Q28" s="18">
         <v>1.544</v>
       </c>
-      <c r="R28" s="21">
+      <c r="R28" s="16">
         <v>1.9830000000000001</v>
       </c>
-      <c r="S28" s="22">
+      <c r="S28" s="17">
         <v>2.0009999999999999</v>
       </c>
-      <c r="T28" s="23">
+      <c r="T28" s="18">
         <v>1.5940000000000001</v>
       </c>
     </row>
     <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="16">
         <v>2.0569999999999999</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="17">
         <v>2.0529999999999999</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="18">
         <v>11.98</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="16">
         <v>1.8959999999999999</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="17">
         <v>1.895</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="18">
         <v>1.369</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="16">
         <v>1.9950000000000001</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="17">
         <v>1.9950000000000001</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="15">
         <v>1.3109999999999999</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="16">
         <v>1.994</v>
       </c>
-      <c r="M29" s="22">
+      <c r="M29" s="17">
         <v>1.9970000000000001</v>
       </c>
-      <c r="N29" s="23">
+      <c r="N29" s="18">
         <v>1.5329999999999999</v>
       </c>
-      <c r="O29" s="21">
+      <c r="O29" s="16">
         <v>1.9790000000000001</v>
       </c>
-      <c r="P29" s="22">
+      <c r="P29" s="17">
         <v>1.9890000000000001</v>
       </c>
-      <c r="Q29" s="23">
+      <c r="Q29" s="18">
         <v>1.5149999999999999</v>
       </c>
-      <c r="R29" s="21">
+      <c r="R29" s="16">
         <v>2.036</v>
       </c>
-      <c r="S29" s="22">
+      <c r="S29" s="17">
         <v>2.0390000000000001</v>
       </c>
-      <c r="T29" s="23">
+      <c r="T29" s="18">
         <v>1.615</v>
       </c>
     </row>
     <row r="30" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="19">
         <v>2.0590000000000002</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="20">
         <v>2.0539999999999998</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="21">
         <v>11.98</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="19">
         <v>1.8959999999999999</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="20">
         <v>1.895</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="21">
         <v>1.37</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="19">
         <v>1.998</v>
       </c>
-      <c r="J30" s="47">
+      <c r="J30" s="37">
         <v>1.9970000000000001</v>
       </c>
-      <c r="K30" s="50">
+      <c r="K30" s="40">
         <v>1.3069999999999999</v>
       </c>
-      <c r="L30" s="48">
+      <c r="L30" s="38">
         <v>1.9950000000000001</v>
       </c>
-      <c r="M30" s="25">
+      <c r="M30" s="20">
         <v>1.998</v>
       </c>
-      <c r="N30" s="26">
+      <c r="N30" s="21">
         <v>1.538</v>
       </c>
-      <c r="O30" s="24">
+      <c r="O30" s="19">
         <v>1.978</v>
       </c>
-      <c r="P30" s="25">
+      <c r="P30" s="20">
         <v>1.988</v>
       </c>
-      <c r="Q30" s="26">
+      <c r="Q30" s="21">
         <v>1.52</v>
       </c>
-      <c r="R30" s="24">
+      <c r="R30" s="19">
         <v>2.036</v>
       </c>
-      <c r="S30" s="25">
+      <c r="S30" s="20">
         <v>2.0390000000000001</v>
       </c>
-      <c r="T30" s="26">
+      <c r="T30" s="21">
         <v>1.619</v>
       </c>
     </row>
     <row r="32" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="7">
+      <c r="D33" s="44"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="43">
         <v>1</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="7">
+      <c r="G33" s="44"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="43">
         <v>2</v>
       </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="7">
+      <c r="J33" s="44"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="43">
         <v>3</v>
       </c>
-      <c r="M33" s="8"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="7">
+      <c r="M33" s="44"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="43">
         <v>4</v>
       </c>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="7">
+      <c r="P33" s="44"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="43">
         <v>5</v>
       </c>
-      <c r="S33" s="8"/>
-      <c r="T33" s="9"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="45"/>
     </row>
     <row r="34" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
-      <c r="C34" s="18" t="s">
+      <c r="B34" s="42"/>
+      <c r="C34" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="20" t="s">
+      <c r="H34" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K34" s="20" t="s">
+      <c r="K34" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L34" s="18" t="s">
+      <c r="L34" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="M34" s="19" t="s">
+      <c r="M34" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="N34" s="20" t="s">
+      <c r="N34" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="O34" s="18" t="s">
+      <c r="O34" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P34" s="19" t="s">
+      <c r="P34" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Q34" s="20" t="s">
+      <c r="Q34" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="R34" s="18" t="s">
+      <c r="R34" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="S34" s="19" t="s">
+      <c r="S34" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="T34" s="20" t="s">
+      <c r="T34" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="10">
         <v>0.88859999999999995</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="11">
         <v>0.90449999999999997</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="12">
         <v>12.07</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="10">
         <v>0.84599999999999997</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="11">
         <v>0.85199999999999998</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="12">
         <v>1.782</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I35" s="10">
         <v>0.8921</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="11">
         <v>0.91180000000000005</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="12">
         <v>1.407</v>
       </c>
-      <c r="L35" s="15">
+      <c r="L35" s="10">
         <v>0.91</v>
       </c>
-      <c r="M35" s="16">
+      <c r="M35" s="11">
         <v>0.92779999999999996</v>
       </c>
-      <c r="N35" s="17">
+      <c r="N35" s="12">
         <v>1.784</v>
       </c>
-      <c r="O35" s="15">
+      <c r="O35" s="10">
         <v>0.98299999999999998</v>
       </c>
-      <c r="P35" s="16">
+      <c r="P35" s="11">
         <v>0.98750000000000004</v>
       </c>
-      <c r="Q35" s="17">
+      <c r="Q35" s="12">
         <v>1.6950000000000001</v>
       </c>
-      <c r="R35" s="15">
+      <c r="R35" s="10">
         <v>0.95250000000000001</v>
       </c>
-      <c r="S35" s="16">
+      <c r="S35" s="11">
         <v>0.9617</v>
       </c>
-      <c r="T35" s="17">
+      <c r="T35" s="12">
         <v>1.698</v>
       </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="16">
         <v>0.87619999999999998</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="17">
         <v>0.95099999999999996</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="18">
         <v>12.22</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="16">
         <v>0.83809999999999996</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="17">
         <v>0.90100000000000002</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="18">
         <v>2.7290000000000001</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="16">
         <v>0.85650000000000004</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J36" s="17">
         <v>0.92920000000000003</v>
       </c>
-      <c r="K36" s="23">
+      <c r="K36" s="18">
         <v>1.6779999999999999</v>
       </c>
-      <c r="L36" s="21">
+      <c r="L36" s="16">
         <v>0.90590000000000004</v>
       </c>
-      <c r="M36" s="22">
+      <c r="M36" s="17">
         <v>0.96130000000000004</v>
       </c>
-      <c r="N36" s="23">
+      <c r="N36" s="18">
         <v>2.8730000000000002</v>
       </c>
-      <c r="O36" s="21">
+      <c r="O36" s="16">
         <v>0.9708</v>
       </c>
-      <c r="P36" s="22">
+      <c r="P36" s="17">
         <v>1.028</v>
       </c>
-      <c r="Q36" s="23">
+      <c r="Q36" s="18">
         <v>2.2829999999999999</v>
       </c>
-      <c r="R36" s="21">
+      <c r="R36" s="16">
         <v>0.94599999999999995</v>
       </c>
-      <c r="S36" s="22">
+      <c r="S36" s="17">
         <v>0.99439999999999995</v>
       </c>
-      <c r="T36" s="23">
+      <c r="T36" s="18">
         <v>3.1080000000000001</v>
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="16">
         <v>0.89019999999999999</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="17">
         <v>0.90590000000000004</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="18">
         <v>12.13</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="16">
         <v>0.85460000000000003</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="17">
         <v>0.85960000000000003</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="18">
         <v>2.0190000000000001</v>
       </c>
-      <c r="I37" s="21">
+      <c r="I37" s="16">
         <v>0.86960000000000004</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J37" s="17">
         <v>0.88939999999999997</v>
       </c>
-      <c r="K37" s="23">
+      <c r="K37" s="18">
         <v>1.391</v>
       </c>
-      <c r="L37" s="21">
+      <c r="L37" s="16">
         <v>0.92349999999999999</v>
       </c>
-      <c r="M37" s="22">
+      <c r="M37" s="17">
         <v>0.93959999999999999</v>
       </c>
-      <c r="N37" s="23">
+      <c r="N37" s="18">
         <v>2.21</v>
       </c>
-      <c r="O37" s="21">
+      <c r="O37" s="16">
         <v>0.98609999999999998</v>
       </c>
-      <c r="P37" s="22">
+      <c r="P37" s="17">
         <v>0.99160000000000004</v>
       </c>
-      <c r="Q37" s="23">
+      <c r="Q37" s="18">
         <v>1.9219999999999999</v>
       </c>
-      <c r="R37" s="21">
+      <c r="R37" s="16">
         <v>0.96450000000000002</v>
       </c>
-      <c r="S37" s="22">
+      <c r="S37" s="17">
         <v>0.97240000000000004</v>
       </c>
-      <c r="T37" s="23">
+      <c r="T37" s="18">
         <v>1.9610000000000001</v>
       </c>
     </row>
     <row r="38" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="16">
         <v>0.98950000000000005</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="17">
         <v>0.99939999999999996</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="18">
         <v>12.03</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="16">
         <v>0.96409999999999996</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="17">
         <v>0.96479999999999999</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="18">
         <v>1.702</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="16">
         <v>0.97119999999999995</v>
       </c>
-      <c r="J38" s="22">
+      <c r="J38" s="17">
         <v>0.98250000000000004</v>
       </c>
-      <c r="K38" s="20">
+      <c r="K38" s="15">
         <v>1.482</v>
       </c>
-      <c r="L38" s="21">
+      <c r="L38" s="16">
         <v>1.044</v>
       </c>
-      <c r="M38" s="22">
+      <c r="M38" s="17">
         <v>1.0489999999999999</v>
       </c>
-      <c r="N38" s="23">
+      <c r="N38" s="18">
         <v>1.6839999999999999</v>
       </c>
-      <c r="O38" s="21">
+      <c r="O38" s="16">
         <v>1.087</v>
       </c>
-      <c r="P38" s="22">
+      <c r="P38" s="17">
         <v>1.0880000000000001</v>
       </c>
-      <c r="Q38" s="23">
+      <c r="Q38" s="18">
         <v>1.667</v>
       </c>
-      <c r="R38" s="21">
+      <c r="R38" s="16">
         <v>1.0649999999999999</v>
       </c>
-      <c r="S38" s="22">
+      <c r="S38" s="17">
         <v>1.0640000000000001</v>
       </c>
-      <c r="T38" s="23">
+      <c r="T38" s="18">
         <v>1.611</v>
       </c>
     </row>
     <row r="39" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="19">
         <v>1.028</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="20">
         <v>1.038</v>
       </c>
-      <c r="E39" s="26">
+      <c r="E39" s="21">
         <v>12.02</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="19">
         <v>1.0049999999999999</v>
       </c>
-      <c r="G39" s="25">
+      <c r="G39" s="20">
         <v>1.006</v>
       </c>
-      <c r="H39" s="26">
+      <c r="H39" s="21">
         <v>1.6180000000000001</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="19">
         <v>1.0029999999999999</v>
       </c>
-      <c r="J39" s="47">
+      <c r="J39" s="37">
         <v>1.0129999999999999</v>
       </c>
-      <c r="K39" s="49">
+      <c r="K39" s="39">
         <v>1.429</v>
       </c>
-      <c r="L39" s="48">
+      <c r="L39" s="38">
         <v>1.0980000000000001</v>
       </c>
-      <c r="M39" s="25">
+      <c r="M39" s="20">
         <v>1.101</v>
       </c>
-      <c r="N39" s="26">
+      <c r="N39" s="21">
         <v>1.718</v>
       </c>
-      <c r="O39" s="24">
+      <c r="O39" s="19">
         <v>1.117</v>
       </c>
-      <c r="P39" s="25">
+      <c r="P39" s="20">
         <v>1.1200000000000001</v>
       </c>
-      <c r="Q39" s="26">
+      <c r="Q39" s="21">
         <v>1.716</v>
       </c>
-      <c r="R39" s="24">
+      <c r="R39" s="19">
         <v>1.1060000000000001</v>
       </c>
-      <c r="S39" s="25">
+      <c r="S39" s="20">
         <v>1.105</v>
       </c>
-      <c r="T39" s="26">
+      <c r="T39" s="21">
         <v>1.4890000000000001</v>
       </c>
     </row>
     <row r="41" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="7">
+      <c r="D42" s="44"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="43">
         <v>1</v>
       </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="7">
+      <c r="G42" s="44"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="43">
         <v>2</v>
       </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="7">
+      <c r="J42" s="44"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="43">
         <v>3</v>
       </c>
-      <c r="M42" s="8"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="7">
+      <c r="M42" s="44"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="43">
         <v>4</v>
       </c>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="7">
+      <c r="P42" s="44"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="43">
         <v>5</v>
       </c>
-      <c r="S42" s="8"/>
-      <c r="T42" s="9"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="45"/>
     </row>
     <row r="43" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="13"/>
-      <c r="C43" s="18" t="s">
+      <c r="B43" s="42"/>
+      <c r="C43" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G43" s="19" t="s">
+      <c r="G43" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H43" s="20" t="s">
+      <c r="H43" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="18" t="s">
+      <c r="I43" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J43" s="19" t="s">
+      <c r="J43" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K43" s="20" t="s">
+      <c r="K43" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L43" s="18" t="s">
+      <c r="L43" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="M43" s="19" t="s">
+      <c r="M43" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="N43" s="20" t="s">
+      <c r="N43" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="O43" s="18" t="s">
+      <c r="O43" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P43" s="19" t="s">
+      <c r="P43" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Q43" s="20" t="s">
+      <c r="Q43" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="R43" s="18" t="s">
+      <c r="R43" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="S43" s="19" t="s">
+      <c r="S43" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="T43" s="20" t="s">
+      <c r="T43" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="15">
+      <c r="C44" s="10">
         <v>2.024</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="11">
         <v>2.0270000000000001</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="12">
         <v>11.93</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="10">
         <v>1.9019999999999999</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="11">
         <v>1.9179999999999999</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="12">
         <v>1.4870000000000001</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I44" s="10">
         <v>1.9990000000000001</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J44" s="11">
         <v>1.992</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K44" s="12">
         <v>1.415</v>
       </c>
-      <c r="L44" s="15">
+      <c r="L44" s="10">
         <v>2.004</v>
       </c>
-      <c r="M44" s="16">
+      <c r="M44" s="11">
         <v>1.9970000000000001</v>
       </c>
-      <c r="N44" s="17">
+      <c r="N44" s="12">
         <v>1.5329999999999999</v>
       </c>
-      <c r="O44" s="15">
+      <c r="O44" s="10">
         <v>2.0350000000000001</v>
       </c>
-      <c r="P44" s="16">
+      <c r="P44" s="11">
         <v>2.0499999999999998</v>
       </c>
-      <c r="Q44" s="17">
+      <c r="Q44" s="12">
         <v>1.577</v>
       </c>
-      <c r="R44" s="15">
+      <c r="R44" s="10">
         <v>2.0430000000000001</v>
       </c>
-      <c r="S44" s="16">
+      <c r="S44" s="11">
         <v>2.0419999999999998</v>
       </c>
-      <c r="T44" s="17">
+      <c r="T44" s="12">
         <v>1.661</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="16">
         <v>2.0449999999999999</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="17">
         <v>2.0539999999999998</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="18">
         <v>11.97</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="16">
         <v>1.907</v>
       </c>
-      <c r="G45" s="22">
+      <c r="G45" s="17">
         <v>3.617</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="18">
         <v>21.83</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="16">
         <v>2.024</v>
       </c>
-      <c r="J45" s="22">
+      <c r="J45" s="17">
         <v>2.012</v>
       </c>
-      <c r="K45" s="23">
+      <c r="K45" s="18">
         <v>1.5720000000000001</v>
       </c>
-      <c r="L45" s="21">
+      <c r="L45" s="16">
         <v>2.0139999999999998</v>
       </c>
-      <c r="M45" s="22">
+      <c r="M45" s="17">
         <v>2.0219999999999998</v>
       </c>
-      <c r="N45" s="23">
+      <c r="N45" s="18">
         <v>1.782</v>
       </c>
-      <c r="O45" s="21">
+      <c r="O45" s="16">
         <v>2.0569999999999999</v>
       </c>
-      <c r="P45" s="22">
+      <c r="P45" s="17">
         <v>2.0670000000000002</v>
       </c>
-      <c r="Q45" s="23">
+      <c r="Q45" s="18">
         <v>1.7609999999999999</v>
       </c>
-      <c r="R45" s="21">
+      <c r="R45" s="16">
         <v>2.0910000000000002</v>
       </c>
-      <c r="S45" s="22">
+      <c r="S45" s="17">
         <v>2.1179999999999999</v>
       </c>
-      <c r="T45" s="23">
+      <c r="T45" s="18">
         <v>2.8580000000000001</v>
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="16">
         <v>2.0470000000000002</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="17">
         <v>2.0449999999999999</v>
       </c>
-      <c r="E46" s="23">
+      <c r="E46" s="18">
         <v>11.93</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="16">
         <v>1.9039999999999999</v>
       </c>
-      <c r="G46" s="22">
+      <c r="G46" s="17">
         <v>1.921</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="18">
         <v>1.409</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="16">
         <v>2.0249999999999999</v>
       </c>
-      <c r="J46" s="22">
+      <c r="J46" s="17">
         <v>2.0110000000000001</v>
       </c>
-      <c r="K46" s="23">
+      <c r="K46" s="18">
         <v>1.45</v>
       </c>
-      <c r="L46" s="21">
+      <c r="L46" s="16">
         <v>2.0150000000000001</v>
       </c>
-      <c r="M46" s="22">
+      <c r="M46" s="17">
         <v>2.008</v>
       </c>
-      <c r="N46" s="23">
+      <c r="N46" s="18">
         <v>1.5940000000000001</v>
       </c>
-      <c r="O46" s="21">
+      <c r="O46" s="16">
         <v>2.0590000000000002</v>
       </c>
-      <c r="P46" s="22">
+      <c r="P46" s="17">
         <v>2.0670000000000002</v>
       </c>
-      <c r="Q46" s="23">
+      <c r="Q46" s="18">
         <v>1.5069999999999999</v>
       </c>
-      <c r="R46" s="21">
+      <c r="R46" s="16">
         <v>2.093</v>
       </c>
-      <c r="S46" s="22">
+      <c r="S46" s="17">
         <v>2.089</v>
       </c>
-      <c r="T46" s="23">
+      <c r="T46" s="18">
         <v>1.528</v>
       </c>
     </row>
     <row r="47" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47" s="16">
         <v>2.0529999999999999</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="17">
         <v>2.0489999999999999</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="18">
         <v>11.93</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="16">
         <v>1.9079999999999999</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G47" s="17">
         <v>1.925</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="18">
         <v>1.389</v>
       </c>
-      <c r="I47" s="21">
+      <c r="I47" s="16">
         <v>2.0310000000000001</v>
       </c>
-      <c r="J47" s="22">
+      <c r="J47" s="17">
         <v>2.0139999999999998</v>
       </c>
-      <c r="K47" s="20">
+      <c r="K47" s="15">
         <v>1.351</v>
       </c>
-      <c r="L47" s="21">
+      <c r="L47" s="16">
         <v>2.0190000000000001</v>
       </c>
-      <c r="M47" s="22">
+      <c r="M47" s="17">
         <v>2.0110000000000001</v>
       </c>
-      <c r="N47" s="23">
+      <c r="N47" s="18">
         <v>1.5820000000000001</v>
       </c>
-      <c r="O47" s="21">
+      <c r="O47" s="16">
         <v>2.0619999999999998</v>
       </c>
-      <c r="P47" s="22">
+      <c r="P47" s="17">
         <v>2.0680000000000001</v>
       </c>
-      <c r="Q47" s="23">
+      <c r="Q47" s="18">
         <v>1.5009999999999999</v>
       </c>
-      <c r="R47" s="21">
+      <c r="R47" s="16">
         <v>2.0979999999999999</v>
       </c>
-      <c r="S47" s="22">
+      <c r="S47" s="17">
         <v>2.093</v>
       </c>
-      <c r="T47" s="23">
+      <c r="T47" s="18">
         <v>1.5</v>
       </c>
     </row>
     <row r="48" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="19">
         <v>2.0529999999999999</v>
       </c>
-      <c r="D48" s="25">
+      <c r="D48" s="20">
         <v>2.048</v>
       </c>
-      <c r="E48" s="26">
+      <c r="E48" s="21">
         <v>11.93</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F48" s="19">
         <v>1.9079999999999999</v>
       </c>
-      <c r="G48" s="25">
+      <c r="G48" s="20">
         <v>1.925</v>
       </c>
-      <c r="H48" s="26">
+      <c r="H48" s="21">
         <v>1.3859999999999999</v>
       </c>
-      <c r="I48" s="24">
+      <c r="I48" s="19">
         <v>2.0299999999999998</v>
       </c>
-      <c r="J48" s="47">
+      <c r="J48" s="37">
         <v>2.0139999999999998</v>
       </c>
-      <c r="K48" s="49">
+      <c r="K48" s="39">
         <v>1.347</v>
       </c>
-      <c r="L48" s="48">
+      <c r="L48" s="38">
         <v>2.0190000000000001</v>
       </c>
-      <c r="M48" s="25">
+      <c r="M48" s="20">
         <v>2.0110000000000001</v>
       </c>
-      <c r="N48" s="26">
+      <c r="N48" s="21">
         <v>1.5820000000000001</v>
       </c>
-      <c r="O48" s="24">
+      <c r="O48" s="19">
         <v>2.0609999999999999</v>
       </c>
-      <c r="P48" s="25">
+      <c r="P48" s="20">
         <v>2.0680000000000001</v>
       </c>
-      <c r="Q48" s="26">
+      <c r="Q48" s="21">
         <v>1.4990000000000001</v>
       </c>
-      <c r="R48" s="24">
+      <c r="R48" s="19">
         <v>2.0979999999999999</v>
       </c>
-      <c r="S48" s="25">
+      <c r="S48" s="20">
         <v>2.093</v>
       </c>
-      <c r="T48" s="26">
+      <c r="T48" s="21">
         <v>1.496</v>
       </c>
     </row>
     <row r="50" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="7">
+      <c r="D51" s="44"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="43">
         <v>1</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="7">
+      <c r="G51" s="44"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="43">
         <v>2</v>
       </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="7">
+      <c r="J51" s="44"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="43">
         <v>3</v>
       </c>
-      <c r="M51" s="8"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="7">
+      <c r="M51" s="44"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="43">
         <v>4</v>
       </c>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="7">
+      <c r="P51" s="44"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="43">
         <v>5</v>
       </c>
-      <c r="S51" s="8"/>
-      <c r="T51" s="9"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="45"/>
     </row>
     <row r="52" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="13"/>
-      <c r="C52" s="18" t="s">
+      <c r="B52" s="42"/>
+      <c r="C52" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="19" t="s">
+      <c r="G52" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H52" s="20" t="s">
+      <c r="H52" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="18" t="s">
+      <c r="I52" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J52" s="19" t="s">
+      <c r="J52" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K52" s="20" t="s">
+      <c r="K52" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="18" t="s">
+      <c r="L52" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="M52" s="19" t="s">
+      <c r="M52" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="N52" s="20" t="s">
+      <c r="N52" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="O52" s="18" t="s">
+      <c r="O52" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P52" s="19" t="s">
+      <c r="P52" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="Q52" s="20" t="s">
+      <c r="Q52" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="R52" s="18" t="s">
+      <c r="R52" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="S52" s="19" t="s">
+      <c r="S52" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="T52" s="20" t="s">
+      <c r="T52" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="10">
         <v>1.887</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="11">
         <v>1.907</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="12">
         <v>11.94</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="10">
         <v>1.806</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G53" s="11">
         <v>1.825</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="12">
         <v>1.5289999999999999</v>
       </c>
-      <c r="I53" s="15">
+      <c r="I53" s="10">
         <v>1.8640000000000001</v>
       </c>
-      <c r="J53" s="16">
+      <c r="J53" s="11">
         <v>1.8660000000000001</v>
       </c>
-      <c r="K53" s="17">
+      <c r="K53" s="12">
         <v>1.323</v>
       </c>
-      <c r="L53" s="15">
+      <c r="L53" s="10">
         <v>1.889</v>
       </c>
-      <c r="M53" s="16">
+      <c r="M53" s="11">
         <v>1.8939999999999999</v>
       </c>
-      <c r="N53" s="17">
+      <c r="N53" s="12">
         <v>1.528</v>
       </c>
-      <c r="O53" s="15">
+      <c r="O53" s="10">
         <v>1.8839999999999999</v>
       </c>
-      <c r="P53" s="16">
+      <c r="P53" s="11">
         <v>1.919</v>
       </c>
-      <c r="Q53" s="17">
+      <c r="Q53" s="12">
         <v>1.5780000000000001</v>
       </c>
-      <c r="R53" s="15">
+      <c r="R53" s="10">
         <v>1.927</v>
       </c>
-      <c r="S53" s="16">
+      <c r="S53" s="11">
         <v>1.9490000000000001</v>
       </c>
-      <c r="T53" s="17">
+      <c r="T53" s="12">
         <v>1.7529999999999999</v>
       </c>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="21">
+      <c r="C54" s="16">
         <v>1.97</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="17">
         <v>1.982</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="18">
         <v>11.94</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="16">
         <v>1.871</v>
       </c>
-      <c r="G54" s="22">
+      <c r="G54" s="17">
         <v>1.8919999999999999</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="18">
         <v>1.5309999999999999</v>
       </c>
-      <c r="I54" s="21">
+      <c r="I54" s="16">
         <v>1.966</v>
       </c>
-      <c r="J54" s="22">
+      <c r="J54" s="17">
         <v>1.968</v>
       </c>
-      <c r="K54" s="23">
+      <c r="K54" s="18">
         <v>1.4339999999999999</v>
       </c>
-      <c r="L54" s="21">
+      <c r="L54" s="16">
         <v>2.0070000000000001</v>
       </c>
-      <c r="M54" s="22">
+      <c r="M54" s="17">
         <v>2.0030000000000001</v>
       </c>
-      <c r="N54" s="23">
+      <c r="N54" s="18">
         <v>1.708</v>
       </c>
-      <c r="O54" s="21">
+      <c r="O54" s="16">
         <v>1.9790000000000001</v>
       </c>
-      <c r="P54" s="22">
+      <c r="P54" s="17">
         <v>1.996</v>
       </c>
-      <c r="Q54" s="23">
+      <c r="Q54" s="18">
         <v>1.659</v>
       </c>
-      <c r="R54" s="21">
+      <c r="R54" s="16">
         <v>2.0489999999999999</v>
       </c>
-      <c r="S54" s="22">
+      <c r="S54" s="17">
         <v>2.0619999999999998</v>
       </c>
-      <c r="T54" s="23">
+      <c r="T54" s="18">
         <v>1.7050000000000001</v>
       </c>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="21">
+      <c r="C55" s="16">
         <v>1.9710000000000001</v>
       </c>
-      <c r="D55" s="22">
+      <c r="D55" s="17">
         <v>1.982</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="18">
         <v>11.92</v>
       </c>
-      <c r="F55" s="21">
+      <c r="F55" s="16">
         <v>1.8720000000000001</v>
       </c>
-      <c r="G55" s="22">
+      <c r="G55" s="17">
         <v>1.887</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="18">
         <v>1.4259999999999999</v>
       </c>
-      <c r="I55" s="21">
+      <c r="I55" s="16">
         <v>1.9670000000000001</v>
       </c>
-      <c r="J55" s="22">
+      <c r="J55" s="17">
         <v>1.9670000000000001</v>
       </c>
-      <c r="K55" s="23">
+      <c r="K55" s="18">
         <v>1.353</v>
       </c>
-      <c r="L55" s="21">
+      <c r="L55" s="16">
         <v>2.008</v>
       </c>
-      <c r="M55" s="22">
+      <c r="M55" s="17">
         <v>2.0019999999999998</v>
       </c>
-      <c r="N55" s="23">
+      <c r="N55" s="18">
         <v>1.6419999999999999</v>
       </c>
-      <c r="O55" s="21">
+      <c r="O55" s="16">
         <v>1.98</v>
       </c>
-      <c r="P55" s="22">
+      <c r="P55" s="17">
         <v>1.996</v>
       </c>
-      <c r="Q55" s="23">
+      <c r="Q55" s="18">
         <v>1.56</v>
       </c>
-      <c r="R55" s="21">
+      <c r="R55" s="16">
         <v>2.0499999999999998</v>
       </c>
-      <c r="S55" s="22">
+      <c r="S55" s="17">
         <v>2.0609999999999999</v>
       </c>
-      <c r="T55" s="23">
+      <c r="T55" s="18">
         <v>1.611</v>
       </c>
     </row>
     <row r="56" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C56" s="16">
         <v>1.9770000000000001</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D56" s="17">
         <v>1.9870000000000001</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="18">
         <v>11.93</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="16">
         <v>1.877</v>
       </c>
-      <c r="G56" s="22">
+      <c r="G56" s="17">
         <v>1.891</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="18">
         <v>1.4219999999999999</v>
       </c>
-      <c r="I56" s="21">
+      <c r="I56" s="16">
         <v>1.974</v>
       </c>
-      <c r="J56" s="22">
+      <c r="J56" s="17">
         <v>1.9710000000000001</v>
       </c>
-      <c r="K56" s="20">
+      <c r="K56" s="15">
         <v>1.32</v>
       </c>
-      <c r="L56" s="21">
+      <c r="L56" s="16">
         <v>2.0129999999999999</v>
       </c>
-      <c r="M56" s="22">
+      <c r="M56" s="17">
         <v>2.004</v>
       </c>
-      <c r="N56" s="23">
+      <c r="N56" s="18">
         <v>1.6240000000000001</v>
       </c>
-      <c r="O56" s="21">
+      <c r="O56" s="16">
         <v>1.9870000000000001</v>
       </c>
-      <c r="P56" s="22">
+      <c r="P56" s="17">
         <v>1.9990000000000001</v>
       </c>
-      <c r="Q56" s="23">
+      <c r="Q56" s="18">
         <v>1.552</v>
       </c>
-      <c r="R56" s="21">
+      <c r="R56" s="16">
         <v>2.056</v>
       </c>
-      <c r="S56" s="22">
+      <c r="S56" s="17">
         <v>2.0670000000000002</v>
       </c>
-      <c r="T56" s="23">
+      <c r="T56" s="18">
         <v>1.6120000000000001</v>
       </c>
     </row>
     <row r="57" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C57" s="19">
         <v>1.9770000000000001</v>
       </c>
-      <c r="D57" s="25">
+      <c r="D57" s="20">
         <v>1.9870000000000001</v>
       </c>
-      <c r="E57" s="26">
+      <c r="E57" s="21">
         <v>11.94</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="19">
         <v>1.8779999999999999</v>
       </c>
-      <c r="G57" s="25">
+      <c r="G57" s="20">
         <v>1.891</v>
       </c>
-      <c r="H57" s="26">
+      <c r="H57" s="21">
         <v>1.4219999999999999</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="19">
         <v>1.9750000000000001</v>
       </c>
-      <c r="J57" s="47">
+      <c r="J57" s="37">
         <v>1.9730000000000001</v>
       </c>
-      <c r="K57" s="49">
+      <c r="K57" s="39">
         <v>1.3140000000000001</v>
       </c>
-      <c r="L57" s="48">
+      <c r="L57" s="38">
         <v>2.0139999999999998</v>
       </c>
-      <c r="M57" s="25">
+      <c r="M57" s="20">
         <v>2.0059999999999998</v>
       </c>
-      <c r="N57" s="26">
+      <c r="N57" s="21">
         <v>1.623</v>
       </c>
-      <c r="O57" s="24">
+      <c r="O57" s="19">
         <v>1.9870000000000001</v>
       </c>
-      <c r="P57" s="25">
+      <c r="P57" s="20">
         <v>2</v>
       </c>
-      <c r="Q57" s="26">
+      <c r="Q57" s="21">
         <v>1.548</v>
       </c>
-      <c r="R57" s="24">
+      <c r="R57" s="19">
         <v>2.056</v>
       </c>
-      <c r="S57" s="25">
+      <c r="S57" s="20">
         <v>2.0659999999999998</v>
       </c>
-      <c r="T57" s="26">
+      <c r="T57" s="21">
         <v>1.611</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="L51:N51"/>
+    <mergeCell ref="O51:Q51"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:Q24"/>
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="R4:T4"/>
     <mergeCell ref="C4:E4"/>
@@ -3692,30 +3710,12 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="L51:N51"/>
-    <mergeCell ref="O51:Q51"/>
-    <mergeCell ref="R51:T51"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="O42:Q42"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B42:B43"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:E10">
     <cfRule type="colorScale" priority="66">
@@ -4169,389 +4169,389 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="28">
+      <c r="D2" s="47"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="46">
         <v>1</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="28">
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="46">
         <v>2</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="28">
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="46">
         <v>3</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="28">
+      <c r="M2" s="47"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="46">
         <v>4</v>
       </c>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="28">
+      <c r="P2" s="47"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="46">
         <v>5</v>
       </c>
-      <c r="S2" s="29"/>
-      <c r="T2" s="30"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="48"/>
     </row>
     <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="31"/>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="Q3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="R3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="S3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="34" t="s">
+      <c r="T3" s="24" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="26">
         <v>1.91</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="27">
         <v>1.9339999999999999</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="28">
         <v>11.94</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="26">
         <v>1.776</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="27">
         <v>1.7949999999999999</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="28">
         <v>1.4610000000000001</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="26">
         <v>1.87</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="27">
         <v>1.8919999999999999</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="28">
         <v>1.41</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="26">
         <v>1.849</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="27">
         <v>1.873</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N4" s="28">
         <v>1.66</v>
       </c>
-      <c r="O4" s="36">
+      <c r="O4" s="26">
         <v>1.857</v>
       </c>
-      <c r="P4" s="37">
+      <c r="P4" s="27">
         <v>1.883</v>
       </c>
-      <c r="Q4" s="38">
+      <c r="Q4" s="28">
         <v>1.6060000000000001</v>
       </c>
-      <c r="R4" s="36">
+      <c r="R4" s="26">
         <v>1.8979999999999999</v>
       </c>
-      <c r="S4" s="37">
+      <c r="S4" s="27">
         <v>1.923</v>
       </c>
-      <c r="T4" s="38">
+      <c r="T4" s="28">
         <v>1.655</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="30">
         <v>1.988</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="31">
         <v>1.994</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="32">
         <v>11.94</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="30">
         <v>1.9870000000000001</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="31">
         <v>1.9970000000000001</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="32">
         <v>11.94</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="30">
         <v>1.857</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="31">
         <v>1.8640000000000001</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="32">
         <v>1.4119999999999999</v>
       </c>
-      <c r="L5" s="40">
+      <c r="L5" s="30">
         <v>1.9430000000000001</v>
       </c>
-      <c r="M5" s="41">
+      <c r="M5" s="31">
         <v>1.9550000000000001</v>
       </c>
-      <c r="N5" s="42">
+      <c r="N5" s="32">
         <v>1.3919999999999999</v>
       </c>
-      <c r="O5" s="40">
+      <c r="O5" s="30">
         <v>1.9370000000000001</v>
       </c>
-      <c r="P5" s="41">
+      <c r="P5" s="31">
         <v>1.948</v>
       </c>
-      <c r="Q5" s="42">
+      <c r="Q5" s="32">
         <v>1.605</v>
       </c>
-      <c r="R5" s="40">
+      <c r="R5" s="30">
         <v>1.9339999999999999</v>
       </c>
-      <c r="S5" s="41">
+      <c r="S5" s="31">
         <v>1.9450000000000001</v>
       </c>
-      <c r="T5" s="42">
+      <c r="T5" s="32">
         <v>1.5720000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="30">
         <v>1.9890000000000001</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="31">
         <v>1.9930000000000001</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="32">
         <v>11.94</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="30">
         <v>1.859</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="31">
         <v>1.861</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="32">
         <v>1.387</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="30">
         <v>1.9450000000000001</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="31">
         <v>1.952</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="32">
         <v>1.359</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="30">
         <v>1.94</v>
       </c>
-      <c r="M6" s="41">
+      <c r="M6" s="31">
         <v>1.9450000000000001</v>
       </c>
-      <c r="N6" s="42">
+      <c r="N6" s="32">
         <v>1.58</v>
       </c>
-      <c r="O6" s="40">
+      <c r="O6" s="30">
         <v>1.9359999999999999</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="31">
         <v>1.9410000000000001</v>
       </c>
-      <c r="Q6" s="42">
+      <c r="Q6" s="32">
         <v>1.5489999999999999</v>
       </c>
-      <c r="R6" s="40">
+      <c r="R6" s="30">
         <v>1.9830000000000001</v>
       </c>
-      <c r="S6" s="41">
+      <c r="S6" s="31">
         <v>1.986</v>
       </c>
-      <c r="T6" s="42">
+      <c r="T6" s="32">
         <v>1.617</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="30">
         <v>2.0449999999999999</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="31">
         <v>2.0449999999999999</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="32">
         <v>11.94</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="30">
         <v>1.903</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="31">
         <v>1.9019999999999999</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="32">
         <v>1.373</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="30">
         <v>1.9850000000000001</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="31">
         <v>1.9890000000000001</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="32">
         <v>1.337</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="30">
         <v>1.9990000000000001</v>
       </c>
-      <c r="M7" s="41">
+      <c r="M7" s="31">
         <v>2.0009999999999999</v>
       </c>
-      <c r="N7" s="42">
+      <c r="N7" s="32">
         <v>1.56</v>
       </c>
-      <c r="O7" s="40">
+      <c r="O7" s="30">
         <v>1.982</v>
       </c>
-      <c r="P7" s="41">
+      <c r="P7" s="31">
         <v>1.9850000000000001</v>
       </c>
-      <c r="Q7" s="42">
+      <c r="Q7" s="32">
         <v>1.5169999999999999</v>
       </c>
-      <c r="R7" s="40">
+      <c r="R7" s="30">
         <v>2.028</v>
       </c>
-      <c r="S7" s="41">
+      <c r="S7" s="31">
         <v>2.0270000000000001</v>
       </c>
-      <c r="T7" s="42">
+      <c r="T7" s="32">
         <v>1.6040000000000001</v>
       </c>
     </row>
     <row r="8" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="34">
         <v>2.0459999999999998</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="35">
         <v>2.0470000000000002</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="36">
         <v>11.94</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="34">
         <v>1.907</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="35">
         <v>1.907</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="36">
         <v>1.373</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="34">
         <v>1.9870000000000001</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="35">
         <v>1.992</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="36">
         <v>1.337</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="34">
         <v>2.004</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="35">
         <v>2.0059999999999998</v>
       </c>
-      <c r="N8" s="46">
+      <c r="N8" s="36">
         <v>1.5609999999999999</v>
       </c>
-      <c r="O8" s="44">
+      <c r="O8" s="34">
         <v>1.9850000000000001</v>
       </c>
-      <c r="P8" s="45">
+      <c r="P8" s="35">
         <v>1.988</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="36">
         <v>1.512</v>
       </c>
-      <c r="R8" s="44">
+      <c r="R8" s="34">
         <v>2.032</v>
       </c>
-      <c r="S8" s="45">
+      <c r="S8" s="35">
         <v>2.0310000000000001</v>
       </c>
-      <c r="T8" s="46">
+      <c r="T8" s="36">
         <v>1.603</v>
       </c>
     </row>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Python\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8376EE-497F-4B9B-8E6A-F4DE8D11943C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008B1491-E9DB-4359-9376-CF0DE076279F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{570308FA-57AA-44D8-AB6B-3FED48127706}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="117">
   <si>
     <t>Days Ahead</t>
   </si>
@@ -1289,19 +1289,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3CEECB-CE64-4449-A204-376D56E552FB}">
-  <dimension ref="B3:AA57"/>
+  <dimension ref="B3:AI57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="20" width="8.140625" style="6" customWidth="1"/>
+    <col min="22" max="28" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="V3" t="s">
         <v>9</v>
       </c>
@@ -1321,7 +1322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B4" s="41" t="s">
         <v>116</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>1.4890000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="42"/>
       <c r="C5" s="13" t="s">
         <v>6</v>
@@ -1436,8 +1437,29 @@
       <c r="T5" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="AC5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>2</v>
+      </c>
+      <c r="AG5">
+        <v>3</v>
+      </c>
+      <c r="AH5">
+        <v>4</v>
+      </c>
+      <c r="AI5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
@@ -1495,8 +1517,53 @@
       <c r="T6" s="12">
         <v>1.655</v>
       </c>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="V6">
+        <f>E6</f>
+        <v>11.94</v>
+      </c>
+      <c r="W6">
+        <f>H6</f>
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="X6">
+        <f>K6</f>
+        <v>1.41</v>
+      </c>
+      <c r="Y6">
+        <f>N6</f>
+        <v>1.66</v>
+      </c>
+      <c r="Z6">
+        <f>Q6</f>
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="AA6">
+        <f>T6</f>
+        <v>1.655</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD6">
+        <v>11.94</v>
+      </c>
+      <c r="AE6">
+        <v>1.4610000000000001</v>
+      </c>
+      <c r="AF6">
+        <v>1.41</v>
+      </c>
+      <c r="AG6">
+        <v>1.66</v>
+      </c>
+      <c r="AH6">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="AI6">
+        <v>1.655</v>
+      </c>
+    </row>
+    <row r="7" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
@@ -1554,8 +1621,53 @@
       <c r="T7" s="18">
         <v>1.6379999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="V7">
+        <f>E7</f>
+        <v>11.94</v>
+      </c>
+      <c r="W7">
+        <f>H7</f>
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="X7">
+        <f t="shared" ref="X7:X10" si="0">K7</f>
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" ref="Y7:Y10" si="1">N7</f>
+        <v>1.605</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" ref="Z7:Z10" si="2">Q7</f>
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" ref="AA7:AA10" si="3">T7</f>
+        <v>1.6379999999999999</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD7">
+        <v>11.96</v>
+      </c>
+      <c r="AE7">
+        <v>1.478</v>
+      </c>
+      <c r="AF7">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="AG7">
+        <v>1.7030000000000001</v>
+      </c>
+      <c r="AH7">
+        <v>1.623</v>
+      </c>
+      <c r="AI7">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>2</v>
       </c>
@@ -1613,8 +1725,53 @@
       <c r="T8" s="18">
         <v>1.617</v>
       </c>
-    </row>
-    <row r="9" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V8">
+        <f t="shared" ref="V8:V10" si="4">E8</f>
+        <v>11.94</v>
+      </c>
+      <c r="W8">
+        <f t="shared" ref="W8:W10" si="5">H8</f>
+        <v>1.387</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>1.359</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="1"/>
+        <v>1.58</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="2"/>
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="3"/>
+        <v>1.617</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD8">
+        <v>12.05</v>
+      </c>
+      <c r="AE8">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="AF8">
+        <v>1.778</v>
+      </c>
+      <c r="AG8">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="AH8">
+        <v>1.732</v>
+      </c>
+      <c r="AI8">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
@@ -1672,8 +1829,53 @@
       <c r="T9" s="18">
         <v>1.6040000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V9">
+        <f t="shared" si="4"/>
+        <v>11.94</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="5"/>
+        <v>1.373</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>1.337</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="1"/>
+        <v>1.56</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="2"/>
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="3"/>
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD9">
+        <v>12.07</v>
+      </c>
+      <c r="AE9">
+        <v>1.782</v>
+      </c>
+      <c r="AF9">
+        <v>1.407</v>
+      </c>
+      <c r="AG9">
+        <v>1.784</v>
+      </c>
+      <c r="AH9">
+        <v>1.6950000000000001</v>
+      </c>
+      <c r="AI9">
+        <v>1.698</v>
+      </c>
+    </row>
+    <row r="10" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
@@ -1731,9 +1933,122 @@
       <c r="T10" s="21">
         <v>1.603</v>
       </c>
-    </row>
-    <row r="14" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="V10">
+        <f t="shared" si="4"/>
+        <v>11.94</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="5"/>
+        <v>1.373</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>1.337</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="1"/>
+        <v>1.5609999999999999</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="2"/>
+        <v>1.512</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="3"/>
+        <v>1.603</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD10">
+        <v>11.93</v>
+      </c>
+      <c r="AE10">
+        <v>1.4870000000000001</v>
+      </c>
+      <c r="AF10">
+        <v>1.415</v>
+      </c>
+      <c r="AG10">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="AH10">
+        <v>1.577</v>
+      </c>
+      <c r="AI10">
+        <v>1.661</v>
+      </c>
+    </row>
+    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AC11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD11">
+        <v>11.94</v>
+      </c>
+      <c r="AE11">
+        <v>1.5289999999999999</v>
+      </c>
+      <c r="AF11">
+        <v>1.323</v>
+      </c>
+      <c r="AG11">
+        <v>1.528</v>
+      </c>
+      <c r="AH11">
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="AI11">
+        <v>1.7529999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AC13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
+      </c>
+      <c r="AF13">
+        <v>2</v>
+      </c>
+      <c r="AG13">
+        <v>3</v>
+      </c>
+      <c r="AH13">
+        <v>4</v>
+      </c>
+      <c r="AI13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD14">
+        <v>11.94</v>
+      </c>
+      <c r="AE14">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="AF14">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="AG14">
+        <v>1.605</v>
+      </c>
+      <c r="AH14">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="AI14">
+        <v>1.6379999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B15" s="41" t="s">
         <v>113</v>
       </c>
@@ -1767,8 +2082,29 @@
       </c>
       <c r="S15" s="44"/>
       <c r="T15" s="45"/>
-    </row>
-    <row r="16" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD15">
+        <v>12.1</v>
+      </c>
+      <c r="AE15">
+        <v>2.27</v>
+      </c>
+      <c r="AF15">
+        <v>2.4780000000000002</v>
+      </c>
+      <c r="AG15">
+        <v>2.6190000000000002</v>
+      </c>
+      <c r="AH15">
+        <v>2.3039999999999998</v>
+      </c>
+      <c r="AI15">
+        <v>2.653</v>
+      </c>
+    </row>
+    <row r="16" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="42"/>
       <c r="C16" s="13" t="s">
         <v>6</v>
@@ -1824,8 +2160,29 @@
       <c r="T16" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="AC16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD16">
+        <v>1773</v>
+      </c>
+      <c r="AE16">
+        <v>6483</v>
+      </c>
+      <c r="AF16">
+        <v>6157</v>
+      </c>
+      <c r="AG16">
+        <v>7814</v>
+      </c>
+      <c r="AH16">
+        <v>3631</v>
+      </c>
+      <c r="AI16">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
@@ -1883,8 +2240,53 @@
       <c r="T17" s="12">
         <v>1.68</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V17">
+        <f t="shared" ref="V17:V57" si="6">E17</f>
+        <v>11.96</v>
+      </c>
+      <c r="W17">
+        <f t="shared" ref="W17:W57" si="7">H17</f>
+        <v>1.478</v>
+      </c>
+      <c r="X17">
+        <f t="shared" ref="X17:X57" si="8">K17</f>
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" ref="Y17:Y57" si="9">N17</f>
+        <v>1.7030000000000001</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" ref="Z17:Z57" si="10">Q17</f>
+        <v>1.623</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" ref="AA17:AA57" si="11">T17</f>
+        <v>1.68</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD17">
+        <v>12.22</v>
+      </c>
+      <c r="AE17">
+        <v>2.7290000000000001</v>
+      </c>
+      <c r="AF17">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="AG17">
+        <v>2.8730000000000002</v>
+      </c>
+      <c r="AH17">
+        <v>2.2829999999999999</v>
+      </c>
+      <c r="AI17">
+        <v>3.1080000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>3</v>
       </c>
@@ -1942,8 +2344,53 @@
       <c r="T18" s="18">
         <v>2.653</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V18">
+        <f t="shared" si="6"/>
+        <v>12.1</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="7"/>
+        <v>2.27</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="8"/>
+        <v>2.4780000000000002</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="9"/>
+        <v>2.6190000000000002</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="10"/>
+        <v>2.3039999999999998</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="11"/>
+        <v>2.653</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD18">
+        <v>11.97</v>
+      </c>
+      <c r="AE18">
+        <v>21.83</v>
+      </c>
+      <c r="AF18">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="AG18">
+        <v>1.782</v>
+      </c>
+      <c r="AH18">
+        <v>1.7609999999999999</v>
+      </c>
+      <c r="AI18">
+        <v>2.8580000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>2</v>
       </c>
@@ -2001,8 +2448,53 @@
       <c r="T19" s="18">
         <v>1.625</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V19">
+        <f t="shared" si="6"/>
+        <v>11.94</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="7"/>
+        <v>1.4079999999999999</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="8"/>
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="9"/>
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="10"/>
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="11"/>
+        <v>1.625</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD19">
+        <v>11.94</v>
+      </c>
+      <c r="AE19">
+        <v>1.5309999999999999</v>
+      </c>
+      <c r="AF19">
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="AG19">
+        <v>1.708</v>
+      </c>
+      <c r="AH19">
+        <v>1.659</v>
+      </c>
+      <c r="AI19">
+        <v>1.7050000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>4</v>
       </c>
@@ -2060,8 +2552,32 @@
       <c r="T20" s="18">
         <v>1.6080000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V20">
+        <f t="shared" si="6"/>
+        <v>11.94</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="7"/>
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="8"/>
+        <v>1.3360000000000001</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="9"/>
+        <v>1.5609999999999999</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="10"/>
+        <v>1.508</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="11"/>
+        <v>1.6080000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
@@ -2119,9 +2635,99 @@
       <c r="T21" s="21">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="23" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V21">
+        <f t="shared" si="6"/>
+        <v>11.94</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="7"/>
+        <v>1.369</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="8"/>
+        <v>1.3360000000000001</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="9"/>
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="10"/>
+        <v>1.5069999999999999</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="11"/>
+        <v>1.6</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>2</v>
+      </c>
+      <c r="AG21">
+        <v>3</v>
+      </c>
+      <c r="AH21">
+        <v>4</v>
+      </c>
+      <c r="AI21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AC22" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD22">
+        <v>11.94</v>
+      </c>
+      <c r="AE22">
+        <v>1.387</v>
+      </c>
+      <c r="AF22">
+        <v>1.359</v>
+      </c>
+      <c r="AG22">
+        <v>1.58</v>
+      </c>
+      <c r="AH22">
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="AI22">
+        <v>1.617</v>
+      </c>
+    </row>
+    <row r="23" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD23">
+        <v>11.94</v>
+      </c>
+      <c r="AE23">
+        <v>1.4079999999999999</v>
+      </c>
+      <c r="AF23">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="AG23">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="AH23">
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="AI23">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B24" s="41" t="s">
         <v>93</v>
       </c>
@@ -2155,8 +2761,29 @@
       </c>
       <c r="S24" s="44"/>
       <c r="T24" s="45"/>
-    </row>
-    <row r="25" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC24" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD24">
+        <v>11.99</v>
+      </c>
+      <c r="AE24">
+        <v>1.4159999999999999</v>
+      </c>
+      <c r="AF24">
+        <v>1.349</v>
+      </c>
+      <c r="AG24">
+        <v>1.62</v>
+      </c>
+      <c r="AH24">
+        <v>1.544</v>
+      </c>
+      <c r="AI24">
+        <v>1.5940000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="42"/>
       <c r="C25" s="13" t="s">
         <v>6</v>
@@ -2212,8 +2839,29 @@
       <c r="T25" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="AC25" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD25">
+        <v>12.13</v>
+      </c>
+      <c r="AE25">
+        <v>2.0190000000000001</v>
+      </c>
+      <c r="AF25">
+        <v>1.391</v>
+      </c>
+      <c r="AG25">
+        <v>2.21</v>
+      </c>
+      <c r="AH25">
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="AI25">
+        <v>1.9610000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>1</v>
       </c>
@@ -2271,8 +2919,53 @@
       <c r="T26" s="12">
         <v>1.64</v>
       </c>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V26">
+        <f t="shared" si="6"/>
+        <v>12.05</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="7"/>
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="8"/>
+        <v>1.778</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="9"/>
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="10"/>
+        <v>1.732</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="11"/>
+        <v>1.64</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD26">
+        <v>11.93</v>
+      </c>
+      <c r="AE26">
+        <v>1.409</v>
+      </c>
+      <c r="AF26">
+        <v>1.45</v>
+      </c>
+      <c r="AG26">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="AH26">
+        <v>1.5069999999999999</v>
+      </c>
+      <c r="AI26">
+        <v>1.528</v>
+      </c>
+    </row>
+    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>3</v>
       </c>
@@ -2330,8 +3023,53 @@
       <c r="T27" s="18">
         <v>12300</v>
       </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V27">
+        <f t="shared" si="6"/>
+        <v>1773</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="7"/>
+        <v>6483</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="8"/>
+        <v>6157</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="9"/>
+        <v>7814</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="10"/>
+        <v>3631</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="11"/>
+        <v>12300</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD27">
+        <v>11.92</v>
+      </c>
+      <c r="AE27">
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="AF27">
+        <v>1.353</v>
+      </c>
+      <c r="AG27">
+        <v>1.6419999999999999</v>
+      </c>
+      <c r="AH27">
+        <v>1.56</v>
+      </c>
+      <c r="AI27">
+        <v>1.611</v>
+      </c>
+    </row>
+    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>2</v>
       </c>
@@ -2389,8 +3127,32 @@
       <c r="T28" s="18">
         <v>1.5940000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V28">
+        <f t="shared" si="6"/>
+        <v>11.99</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="7"/>
+        <v>1.4159999999999999</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="8"/>
+        <v>1.349</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="9"/>
+        <v>1.62</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="10"/>
+        <v>1.544</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="11"/>
+        <v>1.5940000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
@@ -2448,8 +3210,53 @@
       <c r="T29" s="18">
         <v>1.615</v>
       </c>
-    </row>
-    <row r="30" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V29">
+        <f t="shared" si="6"/>
+        <v>11.98</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="7"/>
+        <v>1.369</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="8"/>
+        <v>1.3109999999999999</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="9"/>
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="10"/>
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="AA29">
+        <f t="shared" si="11"/>
+        <v>1.615</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>2</v>
+      </c>
+      <c r="AG29">
+        <v>3</v>
+      </c>
+      <c r="AH29">
+        <v>4</v>
+      </c>
+      <c r="AI29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>5</v>
       </c>
@@ -2507,9 +3314,99 @@
       <c r="T30" s="21">
         <v>1.619</v>
       </c>
-    </row>
-    <row r="32" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V30">
+        <f t="shared" si="6"/>
+        <v>11.98</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="7"/>
+        <v>1.37</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="8"/>
+        <v>1.3069999999999999</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="9"/>
+        <v>1.538</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="10"/>
+        <v>1.52</v>
+      </c>
+      <c r="AA30">
+        <f t="shared" si="11"/>
+        <v>1.619</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD30">
+        <v>11.94</v>
+      </c>
+      <c r="AE30">
+        <v>1.373</v>
+      </c>
+      <c r="AF30">
+        <v>1.337</v>
+      </c>
+      <c r="AG30">
+        <v>1.56</v>
+      </c>
+      <c r="AH30">
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="AI30">
+        <v>1.6040000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AC31" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD31">
+        <v>11.94</v>
+      </c>
+      <c r="AE31">
+        <v>1.3680000000000001</v>
+      </c>
+      <c r="AF31">
+        <v>1.3360000000000001</v>
+      </c>
+      <c r="AG31">
+        <v>1.5609999999999999</v>
+      </c>
+      <c r="AH31">
+        <v>1.508</v>
+      </c>
+      <c r="AI31">
+        <v>1.6080000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC32" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD32">
+        <v>11.98</v>
+      </c>
+      <c r="AE32">
+        <v>1.369</v>
+      </c>
+      <c r="AF32">
+        <v>1.3109999999999999</v>
+      </c>
+      <c r="AG32">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="AH32">
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="AI32">
+        <v>1.615</v>
+      </c>
+    </row>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B33" s="41" t="s">
         <v>94</v>
       </c>
@@ -2543,8 +3440,29 @@
       </c>
       <c r="S33" s="44"/>
       <c r="T33" s="45"/>
-    </row>
-    <row r="34" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC33" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD33">
+        <v>12.03</v>
+      </c>
+      <c r="AE33">
+        <v>1.702</v>
+      </c>
+      <c r="AF33">
+        <v>1.482</v>
+      </c>
+      <c r="AG33">
+        <v>1.6839999999999999</v>
+      </c>
+      <c r="AH33">
+        <v>1.667</v>
+      </c>
+      <c r="AI33">
+        <v>1.611</v>
+      </c>
+    </row>
+    <row r="34" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="42"/>
       <c r="C34" s="13" t="s">
         <v>6</v>
@@ -2600,8 +3518,29 @@
       <c r="T34" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="AC34" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD34">
+        <v>11.93</v>
+      </c>
+      <c r="AE34">
+        <v>1.389</v>
+      </c>
+      <c r="AF34">
+        <v>1.351</v>
+      </c>
+      <c r="AG34">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="AH34">
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="AI34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
         <v>1</v>
       </c>
@@ -2659,8 +3598,53 @@
       <c r="T35" s="12">
         <v>1.698</v>
       </c>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V35">
+        <f t="shared" si="6"/>
+        <v>12.07</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="7"/>
+        <v>1.782</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="8"/>
+        <v>1.407</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="9"/>
+        <v>1.784</v>
+      </c>
+      <c r="Z35">
+        <f t="shared" si="10"/>
+        <v>1.6950000000000001</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="11"/>
+        <v>1.698</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD35">
+        <v>11.93</v>
+      </c>
+      <c r="AE35">
+        <v>1.4219999999999999</v>
+      </c>
+      <c r="AF35">
+        <v>1.32</v>
+      </c>
+      <c r="AG35">
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="AH35">
+        <v>1.552</v>
+      </c>
+      <c r="AI35">
+        <v>1.6120000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>3</v>
       </c>
@@ -2718,8 +3702,32 @@
       <c r="T36" s="18">
         <v>3.1080000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V36">
+        <f t="shared" si="6"/>
+        <v>12.22</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="7"/>
+        <v>2.7290000000000001</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="8"/>
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="9"/>
+        <v>2.8730000000000002</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="10"/>
+        <v>2.2829999999999999</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="11"/>
+        <v>3.1080000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>2</v>
       </c>
@@ -2777,8 +3785,53 @@
       <c r="T37" s="18">
         <v>1.9610000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V37">
+        <f t="shared" si="6"/>
+        <v>12.13</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="7"/>
+        <v>2.0190000000000001</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="8"/>
+        <v>1.391</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="9"/>
+        <v>2.21</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="10"/>
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="11"/>
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
+      </c>
+      <c r="AF37">
+        <v>2</v>
+      </c>
+      <c r="AG37">
+        <v>3</v>
+      </c>
+      <c r="AH37">
+        <v>4</v>
+      </c>
+      <c r="AI37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>4</v>
       </c>
@@ -2836,8 +3889,53 @@
       <c r="T38" s="18">
         <v>1.611</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V38">
+        <f t="shared" si="6"/>
+        <v>12.03</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="7"/>
+        <v>1.702</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="8"/>
+        <v>1.482</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="9"/>
+        <v>1.6839999999999999</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="10"/>
+        <v>1.667</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="11"/>
+        <v>1.611</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD38">
+        <v>11.94</v>
+      </c>
+      <c r="AE38">
+        <v>1.373</v>
+      </c>
+      <c r="AF38">
+        <v>1.337</v>
+      </c>
+      <c r="AG38">
+        <v>1.5609999999999999</v>
+      </c>
+      <c r="AH38">
+        <v>1.512</v>
+      </c>
+      <c r="AI38">
+        <v>1.603</v>
+      </c>
+    </row>
+    <row r="39" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>5</v>
       </c>
@@ -2895,9 +3993,99 @@
       <c r="T39" s="21">
         <v>1.4890000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V39">
+        <f t="shared" si="6"/>
+        <v>12.02</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="7"/>
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="8"/>
+        <v>1.429</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="9"/>
+        <v>1.718</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="10"/>
+        <v>1.716</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="11"/>
+        <v>1.4890000000000001</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD39">
+        <v>11.94</v>
+      </c>
+      <c r="AE39">
+        <v>1.369</v>
+      </c>
+      <c r="AF39">
+        <v>1.3360000000000001</v>
+      </c>
+      <c r="AG39">
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="AH39">
+        <v>1.5069999999999999</v>
+      </c>
+      <c r="AI39">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="40" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AC40" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD40">
+        <v>11.98</v>
+      </c>
+      <c r="AE40">
+        <v>1.37</v>
+      </c>
+      <c r="AF40">
+        <v>1.3069999999999999</v>
+      </c>
+      <c r="AG40">
+        <v>1.538</v>
+      </c>
+      <c r="AH40">
+        <v>1.52</v>
+      </c>
+      <c r="AI40">
+        <v>1.619</v>
+      </c>
+    </row>
+    <row r="41" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC41" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD41">
+        <v>12.02</v>
+      </c>
+      <c r="AE41">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="AF41">
+        <v>1.429</v>
+      </c>
+      <c r="AG41">
+        <v>1.718</v>
+      </c>
+      <c r="AH41">
+        <v>1.716</v>
+      </c>
+      <c r="AI41">
+        <v>1.4890000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B42" s="41" t="s">
         <v>80</v>
       </c>
@@ -2931,8 +4119,29 @@
       </c>
       <c r="S42" s="44"/>
       <c r="T42" s="45"/>
-    </row>
-    <row r="43" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC42" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD42">
+        <v>11.93</v>
+      </c>
+      <c r="AE42">
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="AF42">
+        <v>1.347</v>
+      </c>
+      <c r="AG42">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="AH42">
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="AI42">
+        <v>1.496</v>
+      </c>
+    </row>
+    <row r="43" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="42"/>
       <c r="C43" s="13" t="s">
         <v>6</v>
@@ -2988,8 +4197,29 @@
       <c r="T43" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="AC43" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD43">
+        <v>11.94</v>
+      </c>
+      <c r="AE43">
+        <v>1.4219999999999999</v>
+      </c>
+      <c r="AF43">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="AG43">
+        <v>1.623</v>
+      </c>
+      <c r="AH43">
+        <v>1.548</v>
+      </c>
+      <c r="AI43">
+        <v>1.611</v>
+      </c>
+    </row>
+    <row r="44" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
         <v>1</v>
       </c>
@@ -3047,8 +4277,32 @@
       <c r="T44" s="12">
         <v>1.661</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V44">
+        <f t="shared" si="6"/>
+        <v>11.93</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="7"/>
+        <v>1.4870000000000001</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="8"/>
+        <v>1.415</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="9"/>
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="Z44">
+        <f t="shared" si="10"/>
+        <v>1.577</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="11"/>
+        <v>1.661</v>
+      </c>
+    </row>
+    <row r="45" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
         <v>3</v>
       </c>
@@ -3106,8 +4360,32 @@
       <c r="T45" s="18">
         <v>2.8580000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V45">
+        <f t="shared" si="6"/>
+        <v>11.97</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="7"/>
+        <v>21.83</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="8"/>
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="9"/>
+        <v>1.782</v>
+      </c>
+      <c r="Z45">
+        <f t="shared" si="10"/>
+        <v>1.7609999999999999</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="11"/>
+        <v>2.8580000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
         <v>2</v>
       </c>
@@ -3165,8 +4443,32 @@
       <c r="T46" s="18">
         <v>1.528</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V46">
+        <f t="shared" si="6"/>
+        <v>11.93</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="7"/>
+        <v>1.409</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="8"/>
+        <v>1.45</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="9"/>
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="Z46">
+        <f t="shared" si="10"/>
+        <v>1.5069999999999999</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="11"/>
+        <v>1.528</v>
+      </c>
+    </row>
+    <row r="47" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>4</v>
       </c>
@@ -3224,8 +4526,32 @@
       <c r="T47" s="18">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V47">
+        <f t="shared" si="6"/>
+        <v>11.93</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="7"/>
+        <v>1.389</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="8"/>
+        <v>1.351</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="9"/>
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="10"/>
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>5</v>
       </c>
@@ -3283,9 +4609,33 @@
       <c r="T48" s="21">
         <v>1.496</v>
       </c>
-    </row>
-    <row r="50" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V48">
+        <f t="shared" si="6"/>
+        <v>11.93</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="7"/>
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="8"/>
+        <v>1.347</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="9"/>
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="10"/>
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="11"/>
+        <v>1.496</v>
+      </c>
+    </row>
+    <row r="50" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B51" s="41" t="s">
         <v>85</v>
       </c>
@@ -3320,7 +4670,7 @@
       <c r="S51" s="44"/>
       <c r="T51" s="45"/>
     </row>
-    <row r="52" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="42"/>
       <c r="C52" s="13" t="s">
         <v>6</v>
@@ -3377,7 +4727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
         <v>1</v>
       </c>
@@ -3435,8 +4785,32 @@
       <c r="T53" s="12">
         <v>1.7529999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V53">
+        <f t="shared" si="6"/>
+        <v>11.94</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="7"/>
+        <v>1.5289999999999999</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="8"/>
+        <v>1.323</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="9"/>
+        <v>1.528</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="10"/>
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="11"/>
+        <v>1.7529999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
         <v>3</v>
       </c>
@@ -3494,8 +4868,32 @@
       <c r="T54" s="18">
         <v>1.7050000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="V54">
+        <f t="shared" si="6"/>
+        <v>11.94</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="7"/>
+        <v>1.5309999999999999</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="8"/>
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="9"/>
+        <v>1.708</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="10"/>
+        <v>1.659</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="11"/>
+        <v>1.7050000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
         <v>2</v>
       </c>
@@ -3553,8 +4951,32 @@
       <c r="T55" s="18">
         <v>1.611</v>
       </c>
-    </row>
-    <row r="56" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V55">
+        <f t="shared" si="6"/>
+        <v>11.92</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="7"/>
+        <v>1.4259999999999999</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="8"/>
+        <v>1.353</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="9"/>
+        <v>1.6419999999999999</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="10"/>
+        <v>1.56</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="11"/>
+        <v>1.611</v>
+      </c>
+    </row>
+    <row r="56" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>4</v>
       </c>
@@ -3612,8 +5034,32 @@
       <c r="T56" s="18">
         <v>1.6120000000000001</v>
       </c>
-    </row>
-    <row r="57" spans="2:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V56">
+        <f t="shared" si="6"/>
+        <v>11.93</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="7"/>
+        <v>1.4219999999999999</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="8"/>
+        <v>1.32</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="9"/>
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="10"/>
+        <v>1.552</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="11"/>
+        <v>1.6120000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>5</v>
       </c>
@@ -3669,6 +5115,30 @@
         <v>2.0659999999999998</v>
       </c>
       <c r="T57" s="21">
+        <v>1.611</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="6"/>
+        <v>11.94</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="7"/>
+        <v>1.4219999999999999</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="8"/>
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="9"/>
+        <v>1.623</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="10"/>
+        <v>1.548</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="11"/>
         <v>1.611</v>
       </c>
     </row>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Python\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008B1491-E9DB-4359-9376-CF0DE076279F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539DA6A1-AEF0-4A66-9B17-0084506BF35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{570308FA-57AA-44D8-AB6B-3FED48127706}"/>
   </bookViews>
@@ -425,7 +425,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -758,11 +758,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -870,12 +1022,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -884,6 +1030,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -899,6 +1051,56 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3CEECB-CE64-4449-A204-376D56E552FB}">
   <dimension ref="B3:AI57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:T57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,6 +1502,7 @@
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="20" width="8.140625" style="6" customWidth="1"/>
     <col min="22" max="28" width="0" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1322,40 +1525,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
+    <row r="4" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="43">
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="41">
         <v>1</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="43">
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="41">
         <v>2</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="43">
+      <c r="J4" s="42"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="41">
         <v>3</v>
       </c>
-      <c r="M4" s="44"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="43">
+      <c r="M4" s="42"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="41">
         <v>4</v>
       </c>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="43">
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="41">
         <v>5</v>
       </c>
-      <c r="S4" s="44"/>
-      <c r="T4" s="45"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="43"/>
       <c r="V4">
         <f>SMALL(E6:E57,1)</f>
         <v>11.92</v>
@@ -1382,7 +1585,7 @@
       </c>
     </row>
     <row r="5" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="42"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="13" t="s">
         <v>6</v>
       </c>
@@ -1437,25 +1640,25 @@
       <c r="T5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC5" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD5" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="54">
         <v>1</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="54">
         <v>2</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="54">
         <v>3</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="54">
         <v>4</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="55">
         <v>5</v>
       </c>
     </row>
@@ -1541,25 +1744,25 @@
         <f>T6</f>
         <v>1.655</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AC6" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="56">
         <v>11.94</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="57">
         <v>1.4610000000000001</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="57">
         <v>1.41</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="57">
         <v>1.66</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="57">
         <v>1.6060000000000001</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="58">
         <v>1.655</v>
       </c>
     </row>
@@ -1645,25 +1848,25 @@
         <f t="shared" ref="AA7:AA10" si="3">T7</f>
         <v>1.6379999999999999</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AC7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="59">
         <v>11.96</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="60">
         <v>1.478</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="60">
         <v>1.4319999999999999</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="60">
         <v>1.7030000000000001</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="60">
         <v>1.623</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" s="61">
         <v>1.68</v>
       </c>
     </row>
@@ -1749,25 +1952,25 @@
         <f t="shared" si="3"/>
         <v>1.617</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AC8" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="59">
         <v>12.05</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="60">
         <v>1.6479999999999999</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="60">
         <v>1.778</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="60">
         <v>1.5980000000000001</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="60">
         <v>1.732</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" s="61">
         <v>1.64</v>
       </c>
     </row>
@@ -1853,25 +2056,25 @@
         <f t="shared" si="3"/>
         <v>1.6040000000000001</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AC9" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="59">
         <v>12.07</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="60">
         <v>1.782</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="60">
         <v>1.407</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="60">
         <v>1.784</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="60">
         <v>1.6950000000000001</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" s="61">
         <v>1.698</v>
       </c>
     </row>
@@ -1957,155 +2160,164 @@
         <f t="shared" si="3"/>
         <v>1.603</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AC10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="59">
         <v>11.93</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="60">
         <v>1.4870000000000001</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="60">
         <v>1.415</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="60">
         <v>1.5329999999999999</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="60">
         <v>1.577</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" s="61">
         <v>1.661</v>
       </c>
     </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="AC11" t="s">
+    <row r="11" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC11" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="62">
         <v>11.94</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="63">
         <v>1.5289999999999999</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="63">
         <v>1.323</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="63">
         <v>1.528</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" s="63">
         <v>1.5780000000000001</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" s="64">
         <v>1.7529999999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="AC13" t="s">
+    <row r="12" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="65"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66"/>
+    </row>
+    <row r="13" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC13" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AD13" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" s="54">
         <v>1</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" s="54">
         <v>2</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" s="54">
         <v>3</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" s="54">
         <v>4</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" s="55">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC14" t="s">
+      <c r="AC14" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" s="56">
         <v>11.94</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" s="57">
         <v>1.4119999999999999</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" s="57">
         <v>1.3919999999999999</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" s="57">
         <v>1.605</v>
       </c>
-      <c r="AH14">
+      <c r="AH14" s="57">
         <v>1.5720000000000001</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" s="58">
         <v>1.6379999999999999</v>
       </c>
     </row>
     <row r="15" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="43">
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="41">
         <v>1</v>
       </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="43">
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="41">
         <v>2</v>
       </c>
-      <c r="J15" s="44"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="43">
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="41">
         <v>3</v>
       </c>
-      <c r="M15" s="44"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="43">
+      <c r="M15" s="42"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="41">
         <v>4</v>
       </c>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="43">
+      <c r="P15" s="42"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="41">
         <v>5</v>
       </c>
-      <c r="S15" s="44"/>
-      <c r="T15" s="45"/>
-      <c r="AC15" t="s">
+      <c r="S15" s="42"/>
+      <c r="T15" s="43"/>
+      <c r="AC15" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="59">
         <v>12.1</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="60">
         <v>2.27</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" s="60">
         <v>2.4780000000000002</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="60">
         <v>2.6190000000000002</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" s="60">
         <v>2.3039999999999998</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" s="61">
         <v>2.653</v>
       </c>
     </row>
     <row r="16" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="42"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="13" t="s">
         <v>6</v>
       </c>
@@ -2160,25 +2372,25 @@
       <c r="T16" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AC16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" s="59">
         <v>1773</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" s="60">
         <v>6483</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" s="60">
         <v>6157</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" s="60">
         <v>7814</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" s="60">
         <v>3631</v>
       </c>
-      <c r="AI16">
+      <c r="AI16" s="61">
         <v>12300</v>
       </c>
     </row>
@@ -2264,25 +2476,25 @@
         <f t="shared" ref="AA17:AA57" si="11">T17</f>
         <v>1.68</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AC17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" s="59">
         <v>12.22</v>
       </c>
-      <c r="AE17">
+      <c r="AE17" s="60">
         <v>2.7290000000000001</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" s="60">
         <v>1.6779999999999999</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" s="60">
         <v>2.8730000000000002</v>
       </c>
-      <c r="AH17">
+      <c r="AH17" s="60">
         <v>2.2829999999999999</v>
       </c>
-      <c r="AI17">
+      <c r="AI17" s="61">
         <v>3.1080000000000001</v>
       </c>
     </row>
@@ -2368,29 +2580,29 @@
         <f t="shared" si="11"/>
         <v>2.653</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AC18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" s="59">
         <v>11.97</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" s="60">
         <v>21.83</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" s="60">
         <v>1.5720000000000001</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="60">
         <v>1.782</v>
       </c>
-      <c r="AH18">
+      <c r="AH18" s="60">
         <v>1.7609999999999999</v>
       </c>
-      <c r="AI18">
+      <c r="AI18" s="61">
         <v>2.8580000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>2</v>
       </c>
@@ -2472,25 +2684,25 @@
         <f t="shared" si="11"/>
         <v>1.625</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AC19" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="62">
         <v>11.94</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" s="63">
         <v>1.5309999999999999</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" s="63">
         <v>1.4339999999999999</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" s="63">
         <v>1.708</v>
       </c>
-      <c r="AH19">
+      <c r="AH19" s="63">
         <v>1.659</v>
       </c>
-      <c r="AI19">
+      <c r="AI19" s="64">
         <v>1.7050000000000001</v>
       </c>
     </row>
@@ -2576,6 +2788,13 @@
         <f t="shared" si="11"/>
         <v>1.6080000000000001</v>
       </c>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="66"/>
     </row>
     <row r="21" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
@@ -2659,132 +2878,132 @@
         <f t="shared" si="11"/>
         <v>1.6</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AC21" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AD21" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="54">
         <v>1</v>
       </c>
-      <c r="AF21">
+      <c r="AF21" s="54">
         <v>2</v>
       </c>
-      <c r="AG21">
+      <c r="AG21" s="54">
         <v>3</v>
       </c>
-      <c r="AH21">
+      <c r="AH21" s="54">
         <v>4</v>
       </c>
-      <c r="AI21">
+      <c r="AI21" s="55">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="AC22" t="s">
+      <c r="AC22" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" s="56">
         <v>11.94</v>
       </c>
-      <c r="AE22">
+      <c r="AE22" s="57">
         <v>1.387</v>
       </c>
-      <c r="AF22">
+      <c r="AF22" s="57">
         <v>1.359</v>
       </c>
-      <c r="AG22">
+      <c r="AG22" s="57">
         <v>1.58</v>
       </c>
-      <c r="AH22">
+      <c r="AH22" s="57">
         <v>1.5489999999999999</v>
       </c>
-      <c r="AI22">
+      <c r="AI22" s="58">
         <v>1.617</v>
       </c>
     </row>
     <row r="23" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC23" t="s">
+      <c r="AC23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="AD23">
+      <c r="AD23" s="59">
         <v>11.94</v>
       </c>
-      <c r="AE23">
+      <c r="AE23" s="60">
         <v>1.4079999999999999</v>
       </c>
-      <c r="AF23">
+      <c r="AF23" s="60">
         <v>1.3560000000000001</v>
       </c>
-      <c r="AG23">
+      <c r="AG23" s="60">
         <v>1.5720000000000001</v>
       </c>
-      <c r="AH23">
+      <c r="AH23" s="60">
         <v>1.5449999999999999</v>
       </c>
-      <c r="AI23">
+      <c r="AI23" s="61">
         <v>1.625</v>
       </c>
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="43">
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="41">
         <v>1</v>
       </c>
-      <c r="G24" s="44"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="43">
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="41">
         <v>2</v>
       </c>
-      <c r="J24" s="44"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="43">
+      <c r="J24" s="42"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="41">
         <v>3</v>
       </c>
-      <c r="M24" s="44"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="43">
+      <c r="M24" s="42"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="41">
         <v>4</v>
       </c>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="43">
+      <c r="P24" s="42"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="41">
         <v>5</v>
       </c>
-      <c r="S24" s="44"/>
-      <c r="T24" s="45"/>
-      <c r="AC24" t="s">
+      <c r="S24" s="42"/>
+      <c r="T24" s="43"/>
+      <c r="AC24" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AD24">
+      <c r="AD24" s="59">
         <v>11.99</v>
       </c>
-      <c r="AE24">
+      <c r="AE24" s="60">
         <v>1.4159999999999999</v>
       </c>
-      <c r="AF24">
+      <c r="AF24" s="60">
         <v>1.349</v>
       </c>
-      <c r="AG24">
+      <c r="AG24" s="60">
         <v>1.62</v>
       </c>
-      <c r="AH24">
+      <c r="AH24" s="60">
         <v>1.544</v>
       </c>
-      <c r="AI24">
+      <c r="AI24" s="61">
         <v>1.5940000000000001</v>
       </c>
     </row>
     <row r="25" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="42"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="13" t="s">
         <v>6</v>
       </c>
@@ -2839,25 +3058,25 @@
       <c r="T25" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AC25" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AD25">
+      <c r="AD25" s="59">
         <v>12.13</v>
       </c>
-      <c r="AE25">
+      <c r="AE25" s="60">
         <v>2.0190000000000001</v>
       </c>
-      <c r="AF25">
+      <c r="AF25" s="60">
         <v>1.391</v>
       </c>
-      <c r="AG25">
+      <c r="AG25" s="60">
         <v>2.21</v>
       </c>
-      <c r="AH25">
+      <c r="AH25" s="60">
         <v>1.9219999999999999</v>
       </c>
-      <c r="AI25">
+      <c r="AI25" s="61">
         <v>1.9610000000000001</v>
       </c>
     </row>
@@ -2943,29 +3162,29 @@
         <f t="shared" si="11"/>
         <v>1.64</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AC26" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AD26">
+      <c r="AD26" s="59">
         <v>11.93</v>
       </c>
-      <c r="AE26">
+      <c r="AE26" s="60">
         <v>1.409</v>
       </c>
-      <c r="AF26">
+      <c r="AF26" s="60">
         <v>1.45</v>
       </c>
-      <c r="AG26">
+      <c r="AG26" s="60">
         <v>1.5940000000000001</v>
       </c>
-      <c r="AH26">
+      <c r="AH26" s="60">
         <v>1.5069999999999999</v>
       </c>
-      <c r="AI26">
+      <c r="AI26" s="61">
         <v>1.528</v>
       </c>
     </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>3</v>
       </c>
@@ -3047,29 +3266,29 @@
         <f t="shared" si="11"/>
         <v>12300</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AC27" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AD27">
+      <c r="AD27" s="62">
         <v>11.92</v>
       </c>
-      <c r="AE27">
+      <c r="AE27" s="63">
         <v>1.4259999999999999</v>
       </c>
-      <c r="AF27">
+      <c r="AF27" s="63">
         <v>1.353</v>
       </c>
-      <c r="AG27">
+      <c r="AG27" s="63">
         <v>1.6419999999999999</v>
       </c>
-      <c r="AH27">
+      <c r="AH27" s="63">
         <v>1.56</v>
       </c>
-      <c r="AI27">
+      <c r="AI27" s="64">
         <v>1.611</v>
       </c>
     </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>2</v>
       </c>
@@ -3151,6 +3370,13 @@
         <f t="shared" si="11"/>
         <v>1.5940000000000001</v>
       </c>
+      <c r="AC28" s="52"/>
+      <c r="AD28" s="65"/>
+      <c r="AE28" s="66"/>
+      <c r="AF28" s="66"/>
+      <c r="AG28" s="66"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
     </row>
     <row r="29" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
@@ -3234,25 +3460,25 @@
         <f t="shared" si="11"/>
         <v>1.615</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AC29" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AD29" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="AE29">
+      <c r="AE29" s="54">
         <v>1</v>
       </c>
-      <c r="AF29">
+      <c r="AF29" s="54">
         <v>2</v>
       </c>
-      <c r="AG29">
+      <c r="AG29" s="54">
         <v>3</v>
       </c>
-      <c r="AH29">
+      <c r="AH29" s="54">
         <v>4</v>
       </c>
-      <c r="AI29">
+      <c r="AI29" s="55">
         <v>5</v>
       </c>
     </row>
@@ -3338,132 +3564,132 @@
         <f t="shared" si="11"/>
         <v>1.619</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AC30" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="AD30">
+      <c r="AD30" s="56">
         <v>11.94</v>
       </c>
-      <c r="AE30">
+      <c r="AE30" s="57">
         <v>1.373</v>
       </c>
-      <c r="AF30">
+      <c r="AF30" s="57">
         <v>1.337</v>
       </c>
-      <c r="AG30">
+      <c r="AG30" s="57">
         <v>1.56</v>
       </c>
-      <c r="AH30">
+      <c r="AH30" s="57">
         <v>1.5169999999999999</v>
       </c>
-      <c r="AI30">
+      <c r="AI30" s="58">
         <v>1.6040000000000001</v>
       </c>
     </row>
     <row r="31" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="AC31" t="s">
+      <c r="AC31" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="AD31">
+      <c r="AD31" s="59">
         <v>11.94</v>
       </c>
-      <c r="AE31">
+      <c r="AE31" s="60">
         <v>1.3680000000000001</v>
       </c>
-      <c r="AF31">
+      <c r="AF31" s="60">
         <v>1.3360000000000001</v>
       </c>
-      <c r="AG31">
+      <c r="AG31" s="60">
         <v>1.5609999999999999</v>
       </c>
-      <c r="AH31">
+      <c r="AH31" s="60">
         <v>1.508</v>
       </c>
-      <c r="AI31">
+      <c r="AI31" s="61">
         <v>1.6080000000000001</v>
       </c>
     </row>
     <row r="32" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC32" t="s">
+      <c r="AC32" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AD32">
+      <c r="AD32" s="59">
         <v>11.98</v>
       </c>
-      <c r="AE32">
+      <c r="AE32" s="60">
         <v>1.369</v>
       </c>
-      <c r="AF32">
+      <c r="AF32" s="60">
         <v>1.3109999999999999</v>
       </c>
-      <c r="AG32">
+      <c r="AG32" s="60">
         <v>1.5329999999999999</v>
       </c>
-      <c r="AH32">
+      <c r="AH32" s="60">
         <v>1.5149999999999999</v>
       </c>
-      <c r="AI32">
+      <c r="AI32" s="61">
         <v>1.615</v>
       </c>
     </row>
     <row r="33" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="43">
+      <c r="D33" s="42"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="41">
         <v>1</v>
       </c>
-      <c r="G33" s="44"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="43">
+      <c r="G33" s="42"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="41">
         <v>2</v>
       </c>
-      <c r="J33" s="44"/>
-      <c r="K33" s="45"/>
-      <c r="L33" s="43">
+      <c r="J33" s="42"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="41">
         <v>3</v>
       </c>
-      <c r="M33" s="44"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="43">
+      <c r="M33" s="42"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="41">
         <v>4</v>
       </c>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="43">
+      <c r="P33" s="42"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="41">
         <v>5</v>
       </c>
-      <c r="S33" s="44"/>
-      <c r="T33" s="45"/>
-      <c r="AC33" t="s">
+      <c r="S33" s="42"/>
+      <c r="T33" s="43"/>
+      <c r="AC33" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AD33">
+      <c r="AD33" s="59">
         <v>12.03</v>
       </c>
-      <c r="AE33">
+      <c r="AE33" s="60">
         <v>1.702</v>
       </c>
-      <c r="AF33">
+      <c r="AF33" s="60">
         <v>1.482</v>
       </c>
-      <c r="AG33">
+      <c r="AG33" s="60">
         <v>1.6839999999999999</v>
       </c>
-      <c r="AH33">
+      <c r="AH33" s="60">
         <v>1.667</v>
       </c>
-      <c r="AI33">
+      <c r="AI33" s="61">
         <v>1.611</v>
       </c>
     </row>
     <row r="34" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="42"/>
+      <c r="B34" s="45"/>
       <c r="C34" s="13" t="s">
         <v>6</v>
       </c>
@@ -3518,29 +3744,29 @@
       <c r="T34" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AC34" t="s">
+      <c r="AC34" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AD34">
+      <c r="AD34" s="59">
         <v>11.93</v>
       </c>
-      <c r="AE34">
+      <c r="AE34" s="60">
         <v>1.389</v>
       </c>
-      <c r="AF34">
+      <c r="AF34" s="60">
         <v>1.351</v>
       </c>
-      <c r="AG34">
+      <c r="AG34" s="60">
         <v>1.5820000000000001</v>
       </c>
-      <c r="AH34">
+      <c r="AH34" s="60">
         <v>1.5009999999999999</v>
       </c>
-      <c r="AI34">
+      <c r="AI34" s="61">
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
         <v>1</v>
       </c>
@@ -3622,29 +3848,29 @@
         <f t="shared" si="11"/>
         <v>1.698</v>
       </c>
-      <c r="AC35" t="s">
+      <c r="AC35" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AD35">
+      <c r="AD35" s="62">
         <v>11.93</v>
       </c>
-      <c r="AE35">
+      <c r="AE35" s="63">
         <v>1.4219999999999999</v>
       </c>
-      <c r="AF35">
+      <c r="AF35" s="63">
         <v>1.32</v>
       </c>
-      <c r="AG35">
+      <c r="AG35" s="63">
         <v>1.6240000000000001</v>
       </c>
-      <c r="AH35">
+      <c r="AH35" s="63">
         <v>1.552</v>
       </c>
-      <c r="AI35">
+      <c r="AI35" s="64">
         <v>1.6120000000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>3</v>
       </c>
@@ -3726,8 +3952,15 @@
         <f t="shared" si="11"/>
         <v>3.1080000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AC36" s="52"/>
+      <c r="AD36" s="65"/>
+      <c r="AE36" s="66"/>
+      <c r="AF36" s="66"/>
+      <c r="AG36" s="66"/>
+      <c r="AH36" s="66"/>
+      <c r="AI36" s="66"/>
+    </row>
+    <row r="37" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>2</v>
       </c>
@@ -3809,25 +4042,25 @@
         <f t="shared" si="11"/>
         <v>1.9610000000000001</v>
       </c>
-      <c r="AC37" t="s">
+      <c r="AC37" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="AD37" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="AE37">
+      <c r="AE37" s="54">
         <v>1</v>
       </c>
-      <c r="AF37">
+      <c r="AF37" s="54">
         <v>2</v>
       </c>
-      <c r="AG37">
+      <c r="AG37" s="54">
         <v>3</v>
       </c>
-      <c r="AH37">
+      <c r="AH37" s="54">
         <v>4</v>
       </c>
-      <c r="AI37">
+      <c r="AI37" s="55">
         <v>5</v>
       </c>
     </row>
@@ -3913,25 +4146,25 @@
         <f t="shared" si="11"/>
         <v>1.611</v>
       </c>
-      <c r="AC38" t="s">
+      <c r="AC38" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="AD38">
+      <c r="AD38" s="56">
         <v>11.94</v>
       </c>
-      <c r="AE38">
+      <c r="AE38" s="57">
         <v>1.373</v>
       </c>
-      <c r="AF38">
+      <c r="AF38" s="57">
         <v>1.337</v>
       </c>
-      <c r="AG38">
+      <c r="AG38" s="57">
         <v>1.5609999999999999</v>
       </c>
-      <c r="AH38">
+      <c r="AH38" s="57">
         <v>1.512</v>
       </c>
-      <c r="AI38">
+      <c r="AI38" s="58">
         <v>1.603</v>
       </c>
     </row>
@@ -4017,132 +4250,132 @@
         <f t="shared" si="11"/>
         <v>1.4890000000000001</v>
       </c>
-      <c r="AC39" t="s">
+      <c r="AC39" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="AD39">
+      <c r="AD39" s="59">
         <v>11.94</v>
       </c>
-      <c r="AE39">
+      <c r="AE39" s="60">
         <v>1.369</v>
       </c>
-      <c r="AF39">
+      <c r="AF39" s="60">
         <v>1.3360000000000001</v>
       </c>
-      <c r="AG39">
+      <c r="AG39" s="60">
         <v>1.5620000000000001</v>
       </c>
-      <c r="AH39">
+      <c r="AH39" s="60">
         <v>1.5069999999999999</v>
       </c>
-      <c r="AI39">
+      <c r="AI39" s="61">
         <v>1.6</v>
       </c>
     </row>
     <row r="40" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="AC40" t="s">
+      <c r="AC40" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AD40">
+      <c r="AD40" s="59">
         <v>11.98</v>
       </c>
-      <c r="AE40">
+      <c r="AE40" s="60">
         <v>1.37</v>
       </c>
-      <c r="AF40">
+      <c r="AF40" s="60">
         <v>1.3069999999999999</v>
       </c>
-      <c r="AG40">
+      <c r="AG40" s="60">
         <v>1.538</v>
       </c>
-      <c r="AH40">
+      <c r="AH40" s="60">
         <v>1.52</v>
       </c>
-      <c r="AI40">
+      <c r="AI40" s="61">
         <v>1.619</v>
       </c>
     </row>
     <row r="41" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC41" t="s">
+      <c r="AC41" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AD41">
+      <c r="AD41" s="59">
         <v>12.02</v>
       </c>
-      <c r="AE41">
+      <c r="AE41" s="60">
         <v>1.6180000000000001</v>
       </c>
-      <c r="AF41">
+      <c r="AF41" s="60">
         <v>1.429</v>
       </c>
-      <c r="AG41">
+      <c r="AG41" s="60">
         <v>1.718</v>
       </c>
-      <c r="AH41">
+      <c r="AH41" s="60">
         <v>1.716</v>
       </c>
-      <c r="AI41">
+      <c r="AI41" s="61">
         <v>1.4890000000000001</v>
       </c>
     </row>
     <row r="42" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C42" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="43">
+      <c r="D42" s="42"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="41">
         <v>1</v>
       </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="43">
+      <c r="G42" s="42"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="41">
         <v>2</v>
       </c>
-      <c r="J42" s="44"/>
-      <c r="K42" s="45"/>
-      <c r="L42" s="43">
+      <c r="J42" s="42"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="41">
         <v>3</v>
       </c>
-      <c r="M42" s="44"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="43">
+      <c r="M42" s="42"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="41">
         <v>4</v>
       </c>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="43">
+      <c r="P42" s="42"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="41">
         <v>5</v>
       </c>
-      <c r="S42" s="44"/>
-      <c r="T42" s="45"/>
-      <c r="AC42" t="s">
+      <c r="S42" s="42"/>
+      <c r="T42" s="43"/>
+      <c r="AC42" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="AD42">
+      <c r="AD42" s="59">
         <v>11.93</v>
       </c>
-      <c r="AE42">
+      <c r="AE42" s="60">
         <v>1.3859999999999999</v>
       </c>
-      <c r="AF42">
+      <c r="AF42" s="60">
         <v>1.347</v>
       </c>
-      <c r="AG42">
+      <c r="AG42" s="60">
         <v>1.5820000000000001</v>
       </c>
-      <c r="AH42">
+      <c r="AH42" s="60">
         <v>1.4990000000000001</v>
       </c>
-      <c r="AI42">
+      <c r="AI42" s="61">
         <v>1.496</v>
       </c>
     </row>
     <row r="43" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="42"/>
+      <c r="B43" s="45"/>
       <c r="C43" s="13" t="s">
         <v>6</v>
       </c>
@@ -4197,25 +4430,25 @@
       <c r="T43" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AC43" t="s">
+      <c r="AC43" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AD43">
+      <c r="AD43" s="62">
         <v>11.94</v>
       </c>
-      <c r="AE43">
+      <c r="AE43" s="63">
         <v>1.4219999999999999</v>
       </c>
-      <c r="AF43">
+      <c r="AF43" s="63">
         <v>1.3140000000000001</v>
       </c>
-      <c r="AG43">
+      <c r="AG43" s="63">
         <v>1.623</v>
       </c>
-      <c r="AH43">
+      <c r="AH43" s="63">
         <v>1.548</v>
       </c>
-      <c r="AI43">
+      <c r="AI43" s="64">
         <v>1.611</v>
       </c>
     </row>
@@ -4636,42 +4869,42 @@
     </row>
     <row r="50" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="43" t="s">
+      <c r="C51" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="44"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="43">
+      <c r="D51" s="42"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="41">
         <v>1</v>
       </c>
-      <c r="G51" s="44"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="43">
+      <c r="G51" s="42"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="41">
         <v>2</v>
       </c>
-      <c r="J51" s="44"/>
-      <c r="K51" s="45"/>
-      <c r="L51" s="43">
+      <c r="J51" s="42"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="41">
         <v>3</v>
       </c>
-      <c r="M51" s="44"/>
-      <c r="N51" s="45"/>
-      <c r="O51" s="43">
+      <c r="M51" s="42"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="41">
         <v>4</v>
       </c>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="43">
+      <c r="P51" s="42"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="41">
         <v>5</v>
       </c>
-      <c r="S51" s="44"/>
-      <c r="T51" s="45"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="43"/>
     </row>
     <row r="52" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="42"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="13" t="s">
         <v>6</v>
       </c>
@@ -5144,6 +5377,36 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="R24:T24"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="O33:Q33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:Q24"/>
     <mergeCell ref="R42:T42"/>
     <mergeCell ref="C51:E51"/>
     <mergeCell ref="F51:H51"/>
@@ -5156,38 +5419,68 @@
     <mergeCell ref="I42:K42"/>
     <mergeCell ref="L42:N42"/>
     <mergeCell ref="O42:Q42"/>
-    <mergeCell ref="R24:T24"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="L33:N33"/>
-    <mergeCell ref="O33:Q33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B42:B43"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:E10">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:H10">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:K10">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:N10">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:Q10">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6:T10">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -5199,8 +5492,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6:H10">
-    <cfRule type="colorScale" priority="65">
+  <conditionalFormatting sqref="C17:E21">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5211,8 +5504,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:K10">
-    <cfRule type="colorScale" priority="64">
+  <conditionalFormatting sqref="F17:H21">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5223,8 +5516,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6:N10">
-    <cfRule type="colorScale" priority="63">
+  <conditionalFormatting sqref="I17:K21">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5235,8 +5528,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6:Q10">
-    <cfRule type="colorScale" priority="62">
+  <conditionalFormatting sqref="L17:N21">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5247,8 +5540,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R6:T10">
-    <cfRule type="colorScale" priority="61">
+  <conditionalFormatting sqref="O17:Q21">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5259,7 +5552,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:E21">
+  <conditionalFormatting sqref="R17:T21">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -5271,7 +5564,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:H21">
+  <conditionalFormatting sqref="C26:E30">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -5283,7 +5576,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:K21">
+  <conditionalFormatting sqref="F26:H30">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -5295,7 +5588,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17:N21">
+  <conditionalFormatting sqref="I26:K30">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -5307,7 +5600,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17:Q21">
+  <conditionalFormatting sqref="L26:N30">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -5319,7 +5612,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R17:T21">
+  <conditionalFormatting sqref="O26:Q30">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -5331,7 +5624,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:E30">
+  <conditionalFormatting sqref="R26:T30">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -5343,7 +5636,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:H30">
+  <conditionalFormatting sqref="C35:E39">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -5355,7 +5648,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:K30">
+  <conditionalFormatting sqref="F35:H39">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -5367,7 +5660,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L26:N30">
+  <conditionalFormatting sqref="I35:K39">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -5379,7 +5672,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O26:Q30">
+  <conditionalFormatting sqref="L35:N39">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -5391,7 +5684,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R26:T30">
+  <conditionalFormatting sqref="O35:Q39">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -5403,7 +5696,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:E39">
+  <conditionalFormatting sqref="R35:T39">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -5415,7 +5708,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:H39">
+  <conditionalFormatting sqref="C44:E48">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -5427,7 +5720,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I35:K39">
+  <conditionalFormatting sqref="F44:H48">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -5439,7 +5732,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L35:N39">
+  <conditionalFormatting sqref="I44:K48">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -5451,7 +5744,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O35:Q39">
+  <conditionalFormatting sqref="L44:N48">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -5463,7 +5756,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R35:T39">
+  <conditionalFormatting sqref="O44:Q48">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -5475,7 +5768,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C44:E48">
+  <conditionalFormatting sqref="R44:T48">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -5487,7 +5780,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:H48">
+  <conditionalFormatting sqref="C53:E57">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -5499,7 +5792,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I44:K48">
+  <conditionalFormatting sqref="F53:H57">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -5511,7 +5804,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L44:N48">
+  <conditionalFormatting sqref="I53:K57">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -5523,7 +5816,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O44:Q48">
+  <conditionalFormatting sqref="L53:N57">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -5535,7 +5828,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R44:T48">
+  <conditionalFormatting sqref="O53:Q57">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -5547,7 +5840,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53:E57">
+  <conditionalFormatting sqref="R53:T57">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -5559,7 +5852,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F53:H57">
+  <conditionalFormatting sqref="AD6:AI11">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -5571,7 +5864,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:K57">
+  <conditionalFormatting sqref="AD14:AI19">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -5583,7 +5876,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L53:N57">
+  <conditionalFormatting sqref="AD22:AI27">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -5595,7 +5888,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O53:Q57">
+  <conditionalFormatting sqref="AD30:AI35">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -5607,7 +5900,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R53:T57">
+  <conditionalFormatting sqref="AD38:AI43">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
